--- a/src/main/resources/newExcel/1.xlsx
+++ b/src/main/resources/newExcel/1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="492">
   <si>
     <t>Відомість</t>
   </si>
@@ -1511,13 +1511,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1764,7 +1768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1809,6 +1813,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2214,7 +2221,7 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
@@ -2227,7 +2234,7 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1"/>
@@ -2240,7 +2247,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1"/>
@@ -2253,7 +2260,7 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1"/>
@@ -2266,7 +2273,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1"/>
@@ -2279,7 +2286,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1"/>
@@ -2292,7 +2299,7 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1"/>
@@ -2305,7 +2312,7 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1"/>
@@ -2318,7 +2325,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1"/>
@@ -2331,7 +2338,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1"/>
@@ -2344,7 +2351,7 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1"/>
@@ -2357,7 +2364,7 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1"/>
@@ -2370,7 +2377,7 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1"/>
@@ -2383,7 +2390,7 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1"/>
@@ -2396,7 +2403,7 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1"/>
@@ -2409,7 +2416,7 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1"/>
@@ -2422,7 +2429,7 @@
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="2"/>
@@ -2435,7 +2442,7 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1"/>
@@ -2448,7 +2455,7 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="1"/>
@@ -2461,7 +2468,7 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1"/>
@@ -2474,7 +2481,7 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="1"/>
@@ -2487,7 +2494,7 @@
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="1"/>
@@ -2500,7 +2507,7 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="1"/>
@@ -2513,7 +2520,7 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1"/>
@@ -2526,7 +2533,7 @@
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="1"/>
@@ -2539,7 +2546,7 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="24" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="1"/>
@@ -2552,7 +2559,7 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1"/>
@@ -2565,7 +2572,7 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="1"/>
@@ -2578,7 +2585,7 @@
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="1"/>
@@ -2591,7 +2598,7 @@
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="24" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1"/>
@@ -2604,7 +2611,7 @@
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1"/>
@@ -2617,7 +2624,7 @@
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="24" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="1"/>
@@ -2630,7 +2637,7 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2"/>
@@ -2643,7 +2650,7 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="1"/>
@@ -2656,7 +2663,7 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="1"/>
@@ -2669,7 +2676,7 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="1"/>
@@ -2682,7 +2689,7 @@
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="1"/>
@@ -2695,7 +2702,7 @@
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="1"/>
@@ -2708,7 +2715,7 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="24" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="1"/>
@@ -2721,7 +2728,7 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="24" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="1"/>
@@ -2734,7 +2741,7 @@
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="24" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="1"/>
@@ -2747,7 +2754,7 @@
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="1"/>
@@ -2760,7 +2767,7 @@
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="24" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="1"/>
@@ -2773,7 +2780,7 @@
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="23" t="s">
+      <c r="A51" s="24" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="1"/>
@@ -2786,7 +2793,7 @@
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="24" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="1"/>
@@ -2799,7 +2806,7 @@
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="24" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="1"/>
@@ -2812,7 +2819,7 @@
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="24" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="1"/>
@@ -2825,7 +2832,7 @@
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="24" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="1"/>
@@ -2838,7 +2845,7 @@
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="24" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="2"/>
@@ -2851,7 +2858,7 @@
       <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="1"/>
@@ -2864,7 +2871,7 @@
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="24" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="1"/>
@@ -2877,7 +2884,7 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="24" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="1"/>
@@ -2890,7 +2897,7 @@
       <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="24" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="1"/>
@@ -2903,7 +2910,7 @@
       <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="24" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="1"/>
@@ -2916,7 +2923,7 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="24" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="1"/>
@@ -2929,7 +2936,7 @@
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="24" t="s">
         <v>69</v>
       </c>
       <c r="B63" s="1"/>
@@ -2942,7 +2949,7 @@
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="24" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="1"/>
@@ -2955,7 +2962,7 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="23" t="s">
+      <c r="A65" s="24" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="1"/>
@@ -2968,7 +2975,7 @@
       <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="24" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="1"/>
@@ -2981,7 +2988,7 @@
       <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="24" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="1"/>
@@ -2994,7 +3001,7 @@
       <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="23" t="s">
+      <c r="A68" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="1"/>
@@ -3007,7 +3014,7 @@
       <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="1"/>
@@ -3020,7 +3027,7 @@
       <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="24" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="1"/>
@@ -3033,7 +3040,7 @@
       <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="24" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="1"/>
@@ -3046,7 +3053,7 @@
       <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="2"/>
@@ -3059,7 +3066,7 @@
       <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="23" t="s">
+      <c r="A73" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="1"/>
@@ -3072,7 +3079,7 @@
       <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="1"/>
@@ -3085,7 +3092,7 @@
       <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="23" t="s">
+      <c r="A75" s="24" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="1"/>
@@ -3098,7 +3105,7 @@
       <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="1"/>
@@ -3111,7 +3118,7 @@
       <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="24" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="1"/>
@@ -3124,7 +3131,7 @@
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="1"/>
@@ -3137,7 +3144,7 @@
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="24" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="1"/>
@@ -3150,7 +3157,7 @@
       <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="1"/>
@@ -3163,7 +3170,7 @@
       <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="1"/>
@@ -3176,7 +3183,7 @@
       <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="1"/>
@@ -3189,7 +3196,7 @@
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="23" t="s">
+      <c r="A83" s="24" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="1"/>
@@ -3202,7 +3209,7 @@
       <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="1"/>
@@ -3215,7 +3222,7 @@
       <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="23" t="s">
+      <c r="A85" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B85" s="1"/>
@@ -3228,7 +3235,7 @@
       <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="23" t="s">
+      <c r="A86" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="1"/>
@@ -3241,7 +3248,7 @@
       <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="1"/>
@@ -3254,7 +3261,7 @@
       <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="23" t="s">
+      <c r="A88" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
@@ -3267,7 +3274,7 @@
       <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B89" s="1"/>
@@ -3280,7 +3287,7 @@
       <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="23" t="s">
+      <c r="A90" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="1"/>
@@ -3293,7 +3300,7 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="23" t="s">
+      <c r="A91" s="24" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="1"/>
@@ -3306,7 +3313,7 @@
       <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="23" t="s">
+      <c r="A92" s="24" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="1"/>
@@ -3319,7 +3326,7 @@
       <c r="I92" s="12"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="1"/>
@@ -3332,7 +3339,7 @@
       <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="23" t="s">
+      <c r="A94" s="24" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="1"/>
@@ -3345,7 +3352,7 @@
       <c r="I94" s="12"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B95" s="1"/>
@@ -3358,7 +3365,7 @@
       <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="23" t="s">
+      <c r="A96" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="1"/>
@@ -3371,7 +3378,7 @@
       <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="24" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="1"/>
@@ -3384,7 +3391,7 @@
       <c r="I97" s="12"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="23" t="s">
+      <c r="A98" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="1"/>
@@ -3397,7 +3404,7 @@
       <c r="I98" s="12"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="23" t="s">
+      <c r="A99" s="24" t="s">
         <v>105</v>
       </c>
       <c r="B99" s="1"/>
@@ -3410,7 +3417,7 @@
       <c r="I99" s="12"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="23" t="s">
+      <c r="A100" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B100" s="1"/>
@@ -3423,7 +3430,7 @@
       <c r="I100" s="12"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B101" s="1"/>
@@ -3436,7 +3443,7 @@
       <c r="I101" s="12"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="23" t="s">
+      <c r="A102" s="24" t="s">
         <v>108</v>
       </c>
       <c r="B102" s="1"/>
@@ -3449,7 +3456,7 @@
       <c r="I102" s="12"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="23" t="s">
+      <c r="A103" s="24" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="1"/>
@@ -3462,7 +3469,7 @@
       <c r="I103" s="12"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="23" t="s">
+      <c r="A104" s="24" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
@@ -3475,7 +3482,7 @@
       <c r="I104" s="10"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B105" s="1"/>
@@ -3488,7 +3495,7 @@
       <c r="I105" s="12"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="24" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="1"/>
@@ -3501,7 +3508,7 @@
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="23" t="s">
+      <c r="A107" s="24" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="1"/>
@@ -3514,7 +3521,7 @@
       <c r="I107" s="12"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="23" t="s">
+      <c r="A108" s="24" t="s">
         <v>114</v>
       </c>
       <c r="B108" s="1"/>
@@ -3527,7 +3534,7 @@
       <c r="I108" s="12"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="24" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="1"/>
@@ -3540,7 +3547,7 @@
       <c r="I109" s="11"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="23" t="s">
+      <c r="A110" s="24" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="1"/>
@@ -3553,7 +3560,7 @@
       <c r="I110" s="12"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="23" t="s">
+      <c r="A111" s="24" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="1"/>
@@ -3566,7 +3573,7 @@
       <c r="I111" s="12"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="23" t="s">
+      <c r="A112" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="1"/>
@@ -3579,7 +3586,7 @@
       <c r="I112" s="12"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="24" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="1"/>
@@ -3592,7 +3599,7 @@
       <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="23" t="s">
+      <c r="A114" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="1"/>
@@ -3605,7 +3612,7 @@
       <c r="I114" s="12"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="23" t="s">
+      <c r="A115" s="24" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="1"/>
@@ -3618,7 +3625,7 @@
       <c r="I115" s="12"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="23" t="s">
+      <c r="A116" s="24" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="1"/>
@@ -3631,7 +3638,7 @@
       <c r="I116" s="12"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="24" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="1"/>
@@ -3644,7 +3651,7 @@
       <c r="I117" s="12"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="23" t="s">
+      <c r="A118" s="24" t="s">
         <v>124</v>
       </c>
       <c r="B118" s="1"/>
@@ -3657,7 +3664,7 @@
       <c r="I118" s="12"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="23" t="s">
+      <c r="A119" s="24" t="s">
         <v>125</v>
       </c>
       <c r="B119" s="1"/>
@@ -3670,7 +3677,7 @@
       <c r="I119" s="12"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="23" t="s">
+      <c r="A120" s="24" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="2"/>
@@ -3683,7 +3690,7 @@
       <c r="I120" s="10"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="23" t="s">
+      <c r="A121" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="1"/>
@@ -3696,7 +3703,7 @@
       <c r="I121" s="12"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="23" t="s">
+      <c r="A122" s="24" t="s">
         <v>128</v>
       </c>
       <c r="B122" s="1"/>
@@ -3709,7 +3716,7 @@
       <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="23" t="s">
+      <c r="A123" s="24" t="s">
         <v>129</v>
       </c>
       <c r="B123" s="1"/>
@@ -3722,7 +3729,7 @@
       <c r="I123" s="12"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="23" t="s">
+      <c r="A124" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B124" s="1"/>
@@ -3735,7 +3742,7 @@
       <c r="I124" s="12"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="23" t="s">
+      <c r="A125" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B125" s="1"/>
@@ -3748,7 +3755,7 @@
       <c r="I125" s="11"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="23" t="s">
+      <c r="A126" s="24" t="s">
         <v>132</v>
       </c>
       <c r="B126" s="1"/>
@@ -3761,7 +3768,7 @@
       <c r="I126" s="12"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="23" t="s">
+      <c r="A127" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B127" s="1"/>
@@ -3774,7 +3781,7 @@
       <c r="I127" s="12"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="23" t="s">
+      <c r="A128" s="24" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="1"/>
@@ -3787,7 +3794,7 @@
       <c r="I128" s="12"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="23" t="s">
+      <c r="A129" s="24" t="s">
         <v>135</v>
       </c>
       <c r="B129" s="1"/>
@@ -3800,7 +3807,7 @@
       <c r="I129" s="12"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="23" t="s">
+      <c r="A130" s="24" t="s">
         <v>136</v>
       </c>
       <c r="B130" s="1"/>
@@ -3813,7 +3820,7 @@
       <c r="I130" s="12"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="23" t="s">
+      <c r="A131" s="24" t="s">
         <v>137</v>
       </c>
       <c r="B131" s="1"/>
@@ -3826,7 +3833,7 @@
       <c r="I131" s="12"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="23" t="s">
+      <c r="A132" s="24" t="s">
         <v>138</v>
       </c>
       <c r="B132" s="1"/>
@@ -3839,7 +3846,7 @@
       <c r="I132" s="12"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="23" t="s">
+      <c r="A133" s="24" t="s">
         <v>139</v>
       </c>
       <c r="B133" s="1"/>
@@ -3852,7 +3859,7 @@
       <c r="I133" s="12"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="23" t="s">
+      <c r="A134" s="24" t="s">
         <v>140</v>
       </c>
       <c r="B134" s="1"/>
@@ -3865,7 +3872,7 @@
       <c r="I134" s="12"/>
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="23" t="s">
+      <c r="A135" s="24" t="s">
         <v>141</v>
       </c>
       <c r="B135" s="1"/>
@@ -3878,7 +3885,7 @@
       <c r="I135" s="12"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="24" t="s">
         <v>142</v>
       </c>
       <c r="B136" s="2"/>
@@ -3891,7 +3898,7 @@
       <c r="I136" s="10"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="24" t="s">
         <v>143</v>
       </c>
       <c r="B137" s="1"/>
@@ -3904,7 +3911,7 @@
       <c r="I137" s="12"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="24" t="s">
         <v>144</v>
       </c>
       <c r="B138" s="1"/>
@@ -3917,7 +3924,7 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="24" t="s">
         <v>145</v>
       </c>
       <c r="B139" s="1"/>
@@ -3930,7 +3937,7 @@
       <c r="I139" s="12"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B140" s="1"/>
@@ -3943,7 +3950,7 @@
       <c r="I140" s="12"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="23" t="s">
+      <c r="A141" s="24" t="s">
         <v>147</v>
       </c>
       <c r="B141" s="1"/>
@@ -3956,7 +3963,7 @@
       <c r="I141" s="11"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="23" t="s">
+      <c r="A142" s="24" t="s">
         <v>148</v>
       </c>
       <c r="B142" s="1"/>
@@ -3969,7 +3976,7 @@
       <c r="I142" s="12"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="24" t="s">
         <v>149</v>
       </c>
       <c r="B143" s="1"/>
@@ -3982,7 +3989,7 @@
       <c r="I143" s="12"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="23" t="s">
+      <c r="A144" s="24" t="s">
         <v>150</v>
       </c>
       <c r="B144" s="1"/>
@@ -3995,7 +4002,7 @@
       <c r="I144" s="12"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="23" t="s">
+      <c r="A145" s="24" t="s">
         <v>151</v>
       </c>
       <c r="B145" s="1"/>
@@ -4008,7 +4015,7 @@
       <c r="I145" s="12"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="23" t="s">
+      <c r="A146" s="24" t="s">
         <v>152</v>
       </c>
       <c r="B146" s="1"/>
@@ -4021,7 +4028,7 @@
       <c r="I146" s="12"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="23" t="s">
+      <c r="A147" s="24" t="s">
         <v>153</v>
       </c>
       <c r="B147" s="1"/>
@@ -4034,7 +4041,7 @@
       <c r="I147" s="12"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="23" t="s">
+      <c r="A148" s="24" t="s">
         <v>154</v>
       </c>
       <c r="B148" s="1"/>
@@ -4047,7 +4054,7 @@
       <c r="I148" s="12"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="23" t="s">
+      <c r="A149" s="24" t="s">
         <v>155</v>
       </c>
       <c r="B149" s="1"/>
@@ -4060,7 +4067,7 @@
       <c r="I149" s="12"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="23" t="s">
+      <c r="A150" s="24" t="s">
         <v>156</v>
       </c>
       <c r="B150" s="1"/>
@@ -4073,7 +4080,7 @@
       <c r="I150" s="12"/>
     </row>
     <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="23" t="s">
+      <c r="A151" s="24" t="s">
         <v>157</v>
       </c>
       <c r="B151" s="1"/>
@@ -4086,7 +4093,7 @@
       <c r="I151" s="12"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="23" t="s">
+      <c r="A152" s="24" t="s">
         <v>158</v>
       </c>
       <c r="B152" s="2"/>
@@ -4099,7 +4106,7 @@
       <c r="I152" s="10"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="23" t="s">
+      <c r="A153" s="24" t="s">
         <v>159</v>
       </c>
       <c r="B153" s="1"/>
@@ -4112,7 +4119,7 @@
       <c r="I153" s="12"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="23" t="s">
+      <c r="A154" s="24" t="s">
         <v>160</v>
       </c>
       <c r="B154" s="1"/>
@@ -4125,7 +4132,7 @@
       <c r="I154" s="11"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="24" t="s">
         <v>161</v>
       </c>
       <c r="B155" s="1"/>
@@ -4138,7 +4145,7 @@
       <c r="I155" s="12"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="23" t="s">
+      <c r="A156" s="24" t="s">
         <v>162</v>
       </c>
       <c r="B156" s="1"/>
@@ -4151,7 +4158,7 @@
       <c r="I156" s="12"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="23" t="s">
+      <c r="A157" s="24" t="s">
         <v>163</v>
       </c>
       <c r="B157" s="1"/>
@@ -4164,7 +4171,7 @@
       <c r="I157" s="11"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="23" t="s">
+      <c r="A158" s="24" t="s">
         <v>164</v>
       </c>
       <c r="B158" s="1"/>
@@ -4177,7 +4184,7 @@
       <c r="I158" s="12"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="23" t="s">
+      <c r="A159" s="24" t="s">
         <v>165</v>
       </c>
       <c r="B159" s="1"/>
@@ -4190,7 +4197,7 @@
       <c r="I159" s="12"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="23" t="s">
+      <c r="A160" s="24" t="s">
         <v>166</v>
       </c>
       <c r="B160" s="1"/>
@@ -4203,7 +4210,7 @@
       <c r="I160" s="12"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="23" t="s">
+      <c r="A161" s="24" t="s">
         <v>167</v>
       </c>
       <c r="B161" s="1"/>
@@ -4216,7 +4223,7 @@
       <c r="I161" s="12"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="23" t="s">
+      <c r="A162" s="24" t="s">
         <v>168</v>
       </c>
       <c r="B162" s="1"/>
@@ -4229,7 +4236,7 @@
       <c r="I162" s="12"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="23" t="s">
+      <c r="A163" s="24" t="s">
         <v>169</v>
       </c>
       <c r="B163" s="1"/>
@@ -4242,7 +4249,7 @@
       <c r="I163" s="12"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="23" t="s">
+      <c r="A164" s="24" t="s">
         <v>170</v>
       </c>
       <c r="B164" s="1"/>
@@ -4255,7 +4262,7 @@
       <c r="I164" s="12"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="23" t="s">
+      <c r="A165" s="24" t="s">
         <v>171</v>
       </c>
       <c r="B165" s="1"/>
@@ -4268,7 +4275,7 @@
       <c r="I165" s="12"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="23" t="s">
+      <c r="A166" s="24" t="s">
         <v>172</v>
       </c>
       <c r="B166" s="1"/>
@@ -4281,7 +4288,7 @@
       <c r="I166" s="12"/>
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="23" t="s">
+      <c r="A167" s="24" t="s">
         <v>173</v>
       </c>
       <c r="B167" s="1"/>
@@ -4294,7 +4301,7 @@
       <c r="I167" s="12"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="23" t="s">
+      <c r="A168" s="24" t="s">
         <v>174</v>
       </c>
       <c r="B168" s="2"/>
@@ -4307,7 +4314,7 @@
       <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="23" t="s">
+      <c r="A169" s="24" t="s">
         <v>175</v>
       </c>
       <c r="B169" s="1"/>
@@ -4320,7 +4327,7 @@
       <c r="I169" s="12"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="23" t="s">
+      <c r="A170" s="24" t="s">
         <v>176</v>
       </c>
       <c r="B170" s="1"/>
@@ -4333,7 +4340,7 @@
       <c r="I170" s="11"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="23" t="s">
+      <c r="A171" s="24" t="s">
         <v>177</v>
       </c>
       <c r="B171" s="1"/>
@@ -4346,7 +4353,7 @@
       <c r="I171" s="12"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="23" t="s">
+      <c r="A172" s="24" t="s">
         <v>178</v>
       </c>
       <c r="B172" s="1"/>
@@ -4359,7 +4366,7 @@
       <c r="I172" s="12"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="23" t="s">
+      <c r="A173" s="24" t="s">
         <v>179</v>
       </c>
       <c r="B173" s="1"/>
@@ -4372,7 +4379,7 @@
       <c r="I173" s="11"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="23" t="s">
+      <c r="A174" s="24" t="s">
         <v>180</v>
       </c>
       <c r="B174" s="1"/>
@@ -4385,7 +4392,7 @@
       <c r="I174" s="12"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="23" t="s">
+      <c r="A175" s="24" t="s">
         <v>181</v>
       </c>
       <c r="B175" s="1"/>
@@ -4398,7 +4405,7 @@
       <c r="I175" s="12"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="23" t="s">
+      <c r="A176" s="24" t="s">
         <v>182</v>
       </c>
       <c r="B176" s="1"/>
@@ -4411,7 +4418,7 @@
       <c r="I176" s="12"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="23" t="s">
+      <c r="A177" s="24" t="s">
         <v>183</v>
       </c>
       <c r="B177" s="1"/>
@@ -4424,7 +4431,7 @@
       <c r="I177" s="12"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="24" t="s">
         <v>184</v>
       </c>
       <c r="B178" s="1"/>
@@ -4437,7 +4444,7 @@
       <c r="I178" s="12"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="23" t="s">
+      <c r="A179" s="24" t="s">
         <v>185</v>
       </c>
       <c r="B179" s="1"/>
@@ -4450,7 +4457,7 @@
       <c r="I179" s="12"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="24" t="s">
         <v>186</v>
       </c>
       <c r="B180" s="1"/>
@@ -4463,7 +4470,7 @@
       <c r="I180" s="12"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="23" t="s">
+      <c r="A181" s="24" t="s">
         <v>187</v>
       </c>
       <c r="B181" s="1"/>
@@ -4476,7 +4483,7 @@
       <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="23" t="s">
+      <c r="A182" s="24" t="s">
         <v>188</v>
       </c>
       <c r="B182" s="1"/>
@@ -4489,7 +4496,7 @@
       <c r="I182" s="12"/>
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="23" t="s">
+      <c r="A183" s="24" t="s">
         <v>189</v>
       </c>
       <c r="B183" s="1"/>
@@ -4502,7 +4509,7 @@
       <c r="I183" s="12"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="23" t="s">
+      <c r="A184" s="24" t="s">
         <v>190</v>
       </c>
       <c r="B184" s="2"/>
@@ -4515,7 +4522,7 @@
       <c r="I184" s="10"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="23" t="s">
+      <c r="A185" s="24" t="s">
         <v>191</v>
       </c>
       <c r="B185" s="1"/>
@@ -4528,7 +4535,7 @@
       <c r="I185" s="12"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="23" t="s">
+      <c r="A186" s="24" t="s">
         <v>192</v>
       </c>
       <c r="B186" s="1"/>
@@ -4541,7 +4548,7 @@
       <c r="I186" s="11"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="23" t="s">
+      <c r="A187" s="24" t="s">
         <v>193</v>
       </c>
       <c r="B187" s="1"/>
@@ -4554,7 +4561,7 @@
       <c r="I187" s="12"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="23" t="s">
+      <c r="A188" s="24" t="s">
         <v>194</v>
       </c>
       <c r="B188" s="1"/>
@@ -4567,7 +4574,7 @@
       <c r="I188" s="12"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="23" t="s">
+      <c r="A189" s="24" t="s">
         <v>195</v>
       </c>
       <c r="B189" s="1"/>
@@ -4580,7 +4587,7 @@
       <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="23" t="s">
+      <c r="A190" s="24" t="s">
         <v>196</v>
       </c>
       <c r="B190" s="1"/>
@@ -4593,7 +4600,7 @@
       <c r="I190" s="12"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="23" t="s">
+      <c r="A191" s="24" t="s">
         <v>197</v>
       </c>
       <c r="B191" s="1"/>
@@ -4606,7 +4613,7 @@
       <c r="I191" s="12"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="23" t="s">
+      <c r="A192" s="24" t="s">
         <v>198</v>
       </c>
       <c r="B192" s="1"/>
@@ -4619,7 +4626,7 @@
       <c r="I192" s="12"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="23" t="s">
+      <c r="A193" s="24" t="s">
         <v>199</v>
       </c>
       <c r="B193" s="1"/>
@@ -4632,7 +4639,7 @@
       <c r="I193" s="12"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="23" t="s">
+      <c r="A194" s="24" t="s">
         <v>200</v>
       </c>
       <c r="B194" s="1"/>
@@ -4645,7 +4652,7 @@
       <c r="I194" s="12"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="23" t="s">
+      <c r="A195" s="24" t="s">
         <v>201</v>
       </c>
       <c r="B195" s="1"/>
@@ -4658,7 +4665,7 @@
       <c r="I195" s="12"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="23" t="s">
+      <c r="A196" s="24" t="s">
         <v>202</v>
       </c>
       <c r="B196" s="1"/>
@@ -4671,7 +4678,7 @@
       <c r="I196" s="12"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="23" t="s">
+      <c r="A197" s="24" t="s">
         <v>203</v>
       </c>
       <c r="B197" s="1"/>
@@ -4684,7 +4691,7 @@
       <c r="I197" s="12"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="23" t="s">
+      <c r="A198" s="24" t="s">
         <v>204</v>
       </c>
       <c r="B198" s="1"/>
@@ -4697,7 +4704,7 @@
       <c r="I198" s="12"/>
     </row>
     <row r="199" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="23" t="s">
+      <c r="A199" s="24" t="s">
         <v>205</v>
       </c>
       <c r="B199" s="1"/>
@@ -4710,7 +4717,7 @@
       <c r="I199" s="12"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="23" t="s">
+      <c r="A200" s="24" t="s">
         <v>206</v>
       </c>
       <c r="B200" s="2"/>
@@ -4723,7 +4730,7 @@
       <c r="I200" s="10"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="23" t="s">
+      <c r="A201" s="24" t="s">
         <v>207</v>
       </c>
       <c r="B201" s="1"/>
@@ -4736,7 +4743,7 @@
       <c r="I201" s="12"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="23" t="s">
+      <c r="A202" s="24" t="s">
         <v>208</v>
       </c>
       <c r="B202" s="1"/>
@@ -4749,7 +4756,7 @@
       <c r="I202" s="11"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="23" t="s">
+      <c r="A203" s="24" t="s">
         <v>209</v>
       </c>
       <c r="B203" s="1"/>
@@ -4762,7 +4769,7 @@
       <c r="I203" s="12"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="23" t="s">
+      <c r="A204" s="24" t="s">
         <v>210</v>
       </c>
       <c r="B204" s="1"/>
@@ -4775,7 +4782,7 @@
       <c r="I204" s="12"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="23" t="s">
+      <c r="A205" s="24" t="s">
         <v>211</v>
       </c>
       <c r="B205" s="1"/>
@@ -4788,7 +4795,7 @@
       <c r="I205" s="11"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="23" t="s">
+      <c r="A206" s="24" t="s">
         <v>212</v>
       </c>
       <c r="B206" s="1"/>
@@ -4801,7 +4808,7 @@
       <c r="I206" s="12"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="23" t="s">
+      <c r="A207" s="24" t="s">
         <v>213</v>
       </c>
       <c r="B207" s="1"/>
@@ -4814,7 +4821,7 @@
       <c r="I207" s="12"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="23" t="s">
+      <c r="A208" s="24" t="s">
         <v>214</v>
       </c>
       <c r="B208" s="1"/>
@@ -4827,7 +4834,7 @@
       <c r="I208" s="12"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="23" t="s">
+      <c r="A209" s="24" t="s">
         <v>215</v>
       </c>
       <c r="B209" s="1"/>
@@ -4840,7 +4847,7 @@
       <c r="I209" s="12"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="23" t="s">
+      <c r="A210" s="24" t="s">
         <v>216</v>
       </c>
       <c r="B210" s="1"/>
@@ -4853,7 +4860,7 @@
       <c r="I210" s="12"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="23" t="s">
+      <c r="A211" s="24" t="s">
         <v>217</v>
       </c>
       <c r="B211" s="1"/>
@@ -4866,7 +4873,7 @@
       <c r="I211" s="12"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="23" t="s">
+      <c r="A212" s="24" t="s">
         <v>218</v>
       </c>
       <c r="B212" s="1"/>
@@ -4879,7 +4886,7 @@
       <c r="I212" s="12"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="23" t="s">
+      <c r="A213" s="24" t="s">
         <v>219</v>
       </c>
       <c r="B213" s="1"/>
@@ -4892,7 +4899,7 @@
       <c r="I213" s="12"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="23" t="s">
+      <c r="A214" s="24" t="s">
         <v>220</v>
       </c>
       <c r="B214" s="1"/>
@@ -4905,7 +4912,7 @@
       <c r="I214" s="12"/>
     </row>
     <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="23" t="s">
+      <c r="A215" s="24" t="s">
         <v>221</v>
       </c>
       <c r="B215" s="1"/>
@@ -4918,7 +4925,7 @@
       <c r="I215" s="12"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="23" t="s">
+      <c r="A216" s="24" t="s">
         <v>222</v>
       </c>
       <c r="B216" s="2"/>
@@ -4931,7 +4938,7 @@
       <c r="I216" s="10"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="23" t="s">
+      <c r="A217" s="24" t="s">
         <v>223</v>
       </c>
       <c r="B217" s="1"/>
@@ -4944,7 +4951,7 @@
       <c r="I217" s="12"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="23" t="s">
+      <c r="A218" s="24" t="s">
         <v>224</v>
       </c>
       <c r="B218" s="1"/>
@@ -4957,7 +4964,7 @@
       <c r="I218" s="11"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="23" t="s">
+      <c r="A219" s="24" t="s">
         <v>225</v>
       </c>
       <c r="B219" s="1"/>
@@ -4970,7 +4977,7 @@
       <c r="I219" s="12"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="23" t="s">
+      <c r="A220" s="24" t="s">
         <v>226</v>
       </c>
       <c r="B220" s="1"/>
@@ -4983,7 +4990,7 @@
       <c r="I220" s="12"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="23" t="s">
+      <c r="A221" s="24" t="s">
         <v>201</v>
       </c>
       <c r="B221" s="1"/>
@@ -4996,7 +5003,7 @@
       <c r="I221" s="11"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="23" t="s">
+      <c r="A222" s="24" t="s">
         <v>227</v>
       </c>
       <c r="B222" s="1"/>
@@ -5009,7 +5016,7 @@
       <c r="I222" s="12"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="23" t="s">
+      <c r="A223" s="24" t="s">
         <v>228</v>
       </c>
       <c r="B223" s="1"/>
@@ -5022,7 +5029,7 @@
       <c r="I223" s="12"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="23" t="s">
+      <c r="A224" s="24" t="s">
         <v>229</v>
       </c>
       <c r="B224" s="1"/>
@@ -5035,7 +5042,7 @@
       <c r="I224" s="12"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="23" t="s">
+      <c r="A225" s="24" t="s">
         <v>230</v>
       </c>
       <c r="B225" s="1"/>
@@ -5048,7 +5055,7 @@
       <c r="I225" s="12"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="23" t="s">
+      <c r="A226" s="24" t="s">
         <v>231</v>
       </c>
       <c r="B226" s="1"/>
@@ -5061,7 +5068,7 @@
       <c r="I226" s="12"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="23" t="s">
+      <c r="A227" s="24" t="s">
         <v>232</v>
       </c>
       <c r="B227" s="1"/>
@@ -5074,7 +5081,7 @@
       <c r="I227" s="12"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="23" t="s">
+      <c r="A228" s="24" t="s">
         <v>233</v>
       </c>
       <c r="B228" s="1"/>
@@ -5087,7 +5094,7 @@
       <c r="I228" s="12"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="23" t="s">
+      <c r="A229" s="24" t="s">
         <v>234</v>
       </c>
       <c r="B229" s="1"/>
@@ -5100,7 +5107,7 @@
       <c r="I229" s="12"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="23" t="s">
+      <c r="A230" s="24" t="s">
         <v>235</v>
       </c>
       <c r="B230" s="1"/>
@@ -5113,7 +5120,7 @@
       <c r="I230" s="12"/>
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="23" t="s">
+      <c r="A231" s="24" t="s">
         <v>236</v>
       </c>
       <c r="B231" s="1"/>
@@ -5126,7 +5133,7 @@
       <c r="I231" s="12"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="23" t="s">
+      <c r="A232" s="24" t="s">
         <v>237</v>
       </c>
       <c r="B232" s="2"/>
@@ -5139,7 +5146,7 @@
       <c r="I232" s="10"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="23" t="s">
+      <c r="A233" s="24" t="s">
         <v>238</v>
       </c>
       <c r="B233" s="1"/>
@@ -5152,7 +5159,7 @@
       <c r="I233" s="12"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="23" t="s">
+      <c r="A234" s="24" t="s">
         <v>239</v>
       </c>
       <c r="B234" s="1"/>
@@ -5165,7 +5172,7 @@
       <c r="I234" s="11"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="23" t="s">
+      <c r="A235" s="24" t="s">
         <v>240</v>
       </c>
       <c r="B235" s="1"/>
@@ -5178,7 +5185,7 @@
       <c r="I235" s="12"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="23" t="s">
+      <c r="A236" s="24" t="s">
         <v>241</v>
       </c>
       <c r="B236" s="1"/>
@@ -5191,7 +5198,7 @@
       <c r="I236" s="12"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="23" t="s">
+      <c r="A237" s="24" t="s">
         <v>242</v>
       </c>
       <c r="B237" s="1"/>
@@ -5204,7 +5211,7 @@
       <c r="I237" s="11"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="23" t="s">
+      <c r="A238" s="24" t="s">
         <v>243</v>
       </c>
       <c r="B238" s="1"/>
@@ -5217,7 +5224,7 @@
       <c r="I238" s="12"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="23" t="s">
+      <c r="A239" s="24" t="s">
         <v>244</v>
       </c>
       <c r="B239" s="1"/>
@@ -5230,7 +5237,7 @@
       <c r="I239" s="12"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="23" t="s">
+      <c r="A240" s="24" t="s">
         <v>245</v>
       </c>
       <c r="B240" s="1"/>
@@ -5243,7 +5250,7 @@
       <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" s="23" t="s">
+      <c r="A241" s="24" t="s">
         <v>246</v>
       </c>
       <c r="B241" s="1"/>
@@ -5256,7 +5263,7 @@
       <c r="I241" s="12"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="23" t="s">
+      <c r="A242" s="24" t="s">
         <v>247</v>
       </c>
       <c r="B242" s="1"/>
@@ -5269,7 +5276,7 @@
       <c r="I242" s="12"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="23" t="s">
+      <c r="A243" s="24" t="s">
         <v>248</v>
       </c>
       <c r="B243" s="1"/>
@@ -5282,7 +5289,7 @@
       <c r="I243" s="12"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" s="23" t="s">
+      <c r="A244" s="24" t="s">
         <v>249</v>
       </c>
       <c r="B244" s="1"/>
@@ -5295,7 +5302,7 @@
       <c r="I244" s="12"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A245" s="23" t="s">
+      <c r="A245" s="24" t="s">
         <v>250</v>
       </c>
       <c r="B245" s="1"/>
@@ -5308,7 +5315,7 @@
       <c r="I245" s="12"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A246" s="23" t="s">
+      <c r="A246" s="24" t="s">
         <v>251</v>
       </c>
       <c r="B246" s="1"/>
@@ -5321,7 +5328,7 @@
       <c r="I246" s="12"/>
     </row>
     <row r="247" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="23" t="s">
+      <c r="A247" s="24" t="s">
         <v>252</v>
       </c>
       <c r="B247" s="1"/>
@@ -5334,7 +5341,7 @@
       <c r="I247" s="12"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="23" t="s">
+      <c r="A248" s="24" t="s">
         <v>253</v>
       </c>
       <c r="B248" s="2"/>
@@ -5347,7 +5354,7 @@
       <c r="I248" s="10"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" s="23" t="s">
+      <c r="A249" s="24" t="s">
         <v>254</v>
       </c>
       <c r="B249" s="1"/>
@@ -5360,7 +5367,7 @@
       <c r="I249" s="12"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A250" s="23" t="s">
+      <c r="A250" s="24" t="s">
         <v>255</v>
       </c>
       <c r="B250" s="1"/>
@@ -5373,7 +5380,7 @@
       <c r="I250" s="11"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A251" s="23" t="s">
+      <c r="A251" s="24" t="s">
         <v>256</v>
       </c>
       <c r="B251" s="1"/>
@@ -5386,7 +5393,7 @@
       <c r="I251" s="12"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A252" s="23" t="s">
+      <c r="A252" s="24" t="s">
         <v>257</v>
       </c>
       <c r="B252" s="1"/>
@@ -5399,7 +5406,7 @@
       <c r="I252" s="12"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A253" s="23" t="s">
+      <c r="A253" s="24" t="s">
         <v>258</v>
       </c>
       <c r="B253" s="1"/>
@@ -5412,7 +5419,7 @@
       <c r="I253" s="11"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="23" t="s">
+      <c r="A254" s="24" t="s">
         <v>259</v>
       </c>
       <c r="B254" s="1"/>
@@ -5425,7 +5432,7 @@
       <c r="I254" s="12"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A255" s="23" t="s">
+      <c r="A255" s="24" t="s">
         <v>260</v>
       </c>
       <c r="B255" s="1"/>
@@ -5438,7 +5445,7 @@
       <c r="I255" s="12"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A256" s="23" t="s">
+      <c r="A256" s="24" t="s">
         <v>261</v>
       </c>
       <c r="B256" s="1"/>
@@ -5451,7 +5458,7 @@
       <c r="I256" s="12"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A257" s="23" t="s">
+      <c r="A257" s="24" t="s">
         <v>262</v>
       </c>
       <c r="B257" s="1"/>
@@ -5464,7 +5471,7 @@
       <c r="I257" s="12"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A258" s="23" t="s">
+      <c r="A258" s="24" t="s">
         <v>263</v>
       </c>
       <c r="B258" s="1"/>
@@ -5477,7 +5484,7 @@
       <c r="I258" s="12"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259" s="23" t="s">
+      <c r="A259" s="24" t="s">
         <v>264</v>
       </c>
       <c r="B259" s="1"/>
@@ -5490,7 +5497,7 @@
       <c r="I259" s="12"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A260" s="23" t="s">
+      <c r="A260" s="24" t="s">
         <v>265</v>
       </c>
       <c r="B260" s="1"/>
@@ -5503,7 +5510,7 @@
       <c r="I260" s="12"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A261" s="23" t="s">
+      <c r="A261" s="24" t="s">
         <v>266</v>
       </c>
       <c r="B261" s="1"/>
@@ -5516,7 +5523,7 @@
       <c r="I261" s="12"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A262" s="23" t="s">
+      <c r="A262" s="24" t="s">
         <v>267</v>
       </c>
       <c r="B262" s="1"/>
@@ -5529,7 +5536,7 @@
       <c r="I262" s="12"/>
     </row>
     <row r="263" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="23" t="s">
+      <c r="A263" s="24" t="s">
         <v>268</v>
       </c>
       <c r="B263" s="1"/>
@@ -5542,7 +5549,7 @@
       <c r="I263" s="12"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A264" s="23" t="s">
+      <c r="A264" s="24" t="s">
         <v>269</v>
       </c>
       <c r="B264" s="2"/>
@@ -5555,7 +5562,7 @@
       <c r="I264" s="10"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A265" s="23" t="s">
+      <c r="A265" s="24" t="s">
         <v>270</v>
       </c>
       <c r="B265" s="1"/>
@@ -5568,7 +5575,7 @@
       <c r="I265" s="12"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A266" s="23" t="s">
+      <c r="A266" s="24" t="s">
         <v>271</v>
       </c>
       <c r="B266" s="1"/>
@@ -5581,7 +5588,7 @@
       <c r="I266" s="11"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A267" s="23" t="s">
+      <c r="A267" s="24" t="s">
         <v>272</v>
       </c>
       <c r="B267" s="1"/>
@@ -5594,7 +5601,7 @@
       <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A268" s="23" t="s">
+      <c r="A268" s="24" t="s">
         <v>273</v>
       </c>
       <c r="B268" s="1"/>
@@ -5607,7 +5614,7 @@
       <c r="I268" s="12"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A269" s="23" t="s">
+      <c r="A269" s="24" t="s">
         <v>274</v>
       </c>
       <c r="B269" s="1"/>
@@ -5620,7 +5627,7 @@
       <c r="I269" s="11"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A270" s="23" t="s">
+      <c r="A270" s="24" t="s">
         <v>275</v>
       </c>
       <c r="B270" s="1"/>
@@ -5633,7 +5640,7 @@
       <c r="I270" s="12"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A271" s="23" t="s">
+      <c r="A271" s="24" t="s">
         <v>276</v>
       </c>
       <c r="B271" s="1"/>
@@ -5646,7 +5653,7 @@
       <c r="I271" s="12"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A272" s="23" t="s">
+      <c r="A272" s="24" t="s">
         <v>277</v>
       </c>
       <c r="B272" s="1"/>
@@ -5659,7 +5666,7 @@
       <c r="I272" s="12"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A273" s="23" t="s">
+      <c r="A273" s="24" t="s">
         <v>278</v>
       </c>
       <c r="B273" s="1"/>
@@ -5672,7 +5679,7 @@
       <c r="I273" s="12"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A274" s="23" t="s">
+      <c r="A274" s="24" t="s">
         <v>279</v>
       </c>
       <c r="B274" s="1"/>
@@ -5685,7 +5692,7 @@
       <c r="I274" s="12"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A275" s="23" t="s">
+      <c r="A275" s="24" t="s">
         <v>280</v>
       </c>
       <c r="B275" s="1"/>
@@ -5698,7 +5705,7 @@
       <c r="I275" s="12"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A276" s="23" t="s">
+      <c r="A276" s="24" t="s">
         <v>281</v>
       </c>
       <c r="B276" s="1"/>
@@ -5711,7 +5718,7 @@
       <c r="I276" s="12"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A277" s="23" t="s">
+      <c r="A277" s="24" t="s">
         <v>282</v>
       </c>
       <c r="B277" s="1"/>
@@ -5724,7 +5731,7 @@
       <c r="I277" s="12"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A278" s="23" t="s">
+      <c r="A278" s="24" t="s">
         <v>283</v>
       </c>
       <c r="B278" s="1"/>
@@ -5737,7 +5744,7 @@
       <c r="I278" s="12"/>
     </row>
     <row r="279" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="23" t="s">
+      <c r="A279" s="24" t="s">
         <v>284</v>
       </c>
       <c r="B279" s="1"/>
@@ -5750,7 +5757,7 @@
       <c r="I279" s="12"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A280" s="23" t="s">
+      <c r="A280" s="24" t="s">
         <v>285</v>
       </c>
       <c r="B280" s="2"/>
@@ -5763,7 +5770,7 @@
       <c r="I280" s="10"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A281" s="23" t="s">
+      <c r="A281" s="24" t="s">
         <v>286</v>
       </c>
       <c r="B281" s="1"/>
@@ -5776,7 +5783,7 @@
       <c r="I281" s="12"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A282" s="23" t="s">
+      <c r="A282" s="24" t="s">
         <v>287</v>
       </c>
       <c r="B282" s="1"/>
@@ -5789,7 +5796,7 @@
       <c r="I282" s="11"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A283" s="23" t="s">
+      <c r="A283" s="24" t="s">
         <v>288</v>
       </c>
       <c r="B283" s="1"/>
@@ -5802,7 +5809,7 @@
       <c r="I283" s="12"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A284" s="23" t="s">
+      <c r="A284" s="24" t="s">
         <v>289</v>
       </c>
       <c r="B284" s="1"/>
@@ -5815,7 +5822,7 @@
       <c r="I284" s="12"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A285" s="23" t="s">
+      <c r="A285" s="24" t="s">
         <v>290</v>
       </c>
       <c r="B285" s="1"/>
@@ -5828,7 +5835,7 @@
       <c r="I285" s="11"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A286" s="23" t="s">
+      <c r="A286" s="24" t="s">
         <v>291</v>
       </c>
       <c r="B286" s="1"/>
@@ -5841,7 +5848,7 @@
       <c r="I286" s="12"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A287" s="23" t="s">
+      <c r="A287" s="24" t="s">
         <v>292</v>
       </c>
       <c r="B287" s="1"/>
@@ -5854,7 +5861,7 @@
       <c r="I287" s="12"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" s="23" t="s">
+      <c r="A288" s="24" t="s">
         <v>293</v>
       </c>
       <c r="B288" s="1"/>
@@ -5867,7 +5874,7 @@
       <c r="I288" s="12"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" s="23" t="s">
+      <c r="A289" s="24" t="s">
         <v>294</v>
       </c>
       <c r="B289" s="1"/>
@@ -5880,7 +5887,7 @@
       <c r="I289" s="12"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" s="23" t="s">
+      <c r="A290" s="24" t="s">
         <v>295</v>
       </c>
       <c r="B290" s="1"/>
@@ -5893,7 +5900,7 @@
       <c r="I290" s="12"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A291" s="23" t="s">
+      <c r="A291" s="24" t="s">
         <v>296</v>
       </c>
       <c r="B291" s="1"/>
@@ -5906,7 +5913,7 @@
       <c r="I291" s="12"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A292" s="23" t="s">
+      <c r="A292" s="24" t="s">
         <v>297</v>
       </c>
       <c r="B292" s="1"/>
@@ -5919,7 +5926,7 @@
       <c r="I292" s="12"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" s="23" t="s">
+      <c r="A293" s="24" t="s">
         <v>298</v>
       </c>
       <c r="B293" s="1"/>
@@ -5932,7 +5939,7 @@
       <c r="I293" s="12"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" s="23" t="s">
+      <c r="A294" s="24" t="s">
         <v>299</v>
       </c>
       <c r="B294" s="1"/>
@@ -5945,7 +5952,7 @@
       <c r="I294" s="12"/>
     </row>
     <row r="295" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="23" t="s">
+      <c r="A295" s="24" t="s">
         <v>300</v>
       </c>
       <c r="B295" s="1"/>
@@ -5958,7 +5965,7 @@
       <c r="I295" s="12"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="23" t="s">
+      <c r="A296" s="24" t="s">
         <v>301</v>
       </c>
       <c r="B296" s="2"/>
@@ -5971,7 +5978,7 @@
       <c r="I296" s="10"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="23" t="s">
+      <c r="A297" s="24" t="s">
         <v>302</v>
       </c>
       <c r="B297" s="1"/>
@@ -5984,7 +5991,7 @@
       <c r="I297" s="12"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A298" s="23" t="s">
+      <c r="A298" s="24" t="s">
         <v>303</v>
       </c>
       <c r="B298" s="1"/>
@@ -5997,7 +6004,7 @@
       <c r="I298" s="11"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A299" s="23" t="s">
+      <c r="A299" s="24" t="s">
         <v>304</v>
       </c>
       <c r="B299" s="1"/>
@@ -6010,7 +6017,7 @@
       <c r="I299" s="12"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="23" t="s">
+      <c r="A300" s="24" t="s">
         <v>305</v>
       </c>
       <c r="B300" s="1"/>
@@ -6023,7 +6030,7 @@
       <c r="I300" s="12"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="23" t="s">
+      <c r="A301" s="24" t="s">
         <v>306</v>
       </c>
       <c r="B301" s="1"/>
@@ -6036,7 +6043,7 @@
       <c r="I301" s="11"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A302" s="23" t="s">
+      <c r="A302" s="24" t="s">
         <v>307</v>
       </c>
       <c r="B302" s="1"/>
@@ -6049,7 +6056,7 @@
       <c r="I302" s="12"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="23" t="s">
+      <c r="A303" s="24" t="s">
         <v>308</v>
       </c>
       <c r="B303" s="1"/>
@@ -6062,7 +6069,7 @@
       <c r="I303" s="12"/>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="23" t="s">
+      <c r="A304" s="24" t="s">
         <v>309</v>
       </c>
       <c r="B304" s="1"/>
@@ -6075,7 +6082,7 @@
       <c r="I304" s="12"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A305" s="23" t="s">
+      <c r="A305" s="24" t="s">
         <v>310</v>
       </c>
       <c r="B305" s="1"/>
@@ -6088,7 +6095,7 @@
       <c r="I305" s="12"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A306" s="23" t="s">
+      <c r="A306" s="24" t="s">
         <v>311</v>
       </c>
       <c r="B306" s="1"/>
@@ -6101,7 +6108,7 @@
       <c r="I306" s="12"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A307" s="23" t="s">
+      <c r="A307" s="24" t="s">
         <v>312</v>
       </c>
       <c r="B307" s="1"/>
@@ -6114,7 +6121,7 @@
       <c r="I307" s="12"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A308" s="23" t="s">
+      <c r="A308" s="24" t="s">
         <v>313</v>
       </c>
       <c r="B308" s="1"/>
@@ -6127,7 +6134,7 @@
       <c r="I308" s="12"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A309" s="23" t="s">
+      <c r="A309" s="24" t="s">
         <v>314</v>
       </c>
       <c r="B309" s="1"/>
@@ -6140,7 +6147,7 @@
       <c r="I309" s="12"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A310" s="23" t="s">
+      <c r="A310" s="24" t="s">
         <v>315</v>
       </c>
       <c r="B310" s="1"/>
@@ -6153,7 +6160,7 @@
       <c r="I310" s="12"/>
     </row>
     <row r="311" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="23" t="s">
+      <c r="A311" s="24" t="s">
         <v>316</v>
       </c>
       <c r="B311" s="1"/>
@@ -6166,7 +6173,7 @@
       <c r="I311" s="12"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A312" s="23" t="s">
+      <c r="A312" s="24" t="s">
         <v>317</v>
       </c>
       <c r="B312" s="2"/>
@@ -6179,7 +6186,7 @@
       <c r="I312" s="10"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A313" s="23" t="s">
+      <c r="A313" s="24" t="s">
         <v>318</v>
       </c>
       <c r="B313" s="1"/>
@@ -6192,7 +6199,7 @@
       <c r="I313" s="12"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A314" s="23" t="s">
+      <c r="A314" s="24" t="s">
         <v>319</v>
       </c>
       <c r="B314" s="1"/>
@@ -6205,7 +6212,7 @@
       <c r="I314" s="11"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A315" s="23" t="s">
+      <c r="A315" s="24" t="s">
         <v>320</v>
       </c>
       <c r="B315" s="1"/>
@@ -6218,7 +6225,7 @@
       <c r="I315" s="12"/>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A316" s="23" t="s">
+      <c r="A316" s="24" t="s">
         <v>317</v>
       </c>
       <c r="B316" s="1"/>
@@ -6231,7 +6238,7 @@
       <c r="I316" s="12"/>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A317" s="23" t="s">
+      <c r="A317" s="24" t="s">
         <v>318</v>
       </c>
       <c r="B317" s="1"/>
@@ -6244,7 +6251,7 @@
       <c r="I317" s="11"/>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A318" s="23" t="s">
+      <c r="A318" s="24" t="s">
         <v>319</v>
       </c>
       <c r="B318" s="1"/>
@@ -6257,7 +6264,7 @@
       <c r="I318" s="12"/>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A319" s="23" t="s">
+      <c r="A319" s="24" t="s">
         <v>320</v>
       </c>
       <c r="B319" s="1"/>
@@ -6270,7 +6277,7 @@
       <c r="I319" s="12"/>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A320" s="23" t="s">
+      <c r="A320" s="24" t="s">
         <v>321</v>
       </c>
       <c r="B320" s="1"/>
@@ -6283,7 +6290,7 @@
       <c r="I320" s="12"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A321" s="23" t="s">
+      <c r="A321" s="24" t="s">
         <v>322</v>
       </c>
       <c r="B321" s="1"/>
@@ -6296,7 +6303,7 @@
       <c r="I321" s="12"/>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A322" s="23" t="s">
+      <c r="A322" s="24" t="s">
         <v>323</v>
       </c>
       <c r="B322" s="1"/>
@@ -6309,7 +6316,7 @@
       <c r="I322" s="12"/>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A323" s="23" t="s">
+      <c r="A323" s="24" t="s">
         <v>321</v>
       </c>
       <c r="B323" s="1"/>
@@ -6322,7 +6329,7 @@
       <c r="I323" s="12"/>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A324" s="23" t="s">
+      <c r="A324" s="24" t="s">
         <v>322</v>
       </c>
       <c r="B324" s="1"/>
@@ -6335,7 +6342,7 @@
       <c r="I324" s="12"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A325" s="23" t="s">
+      <c r="A325" s="24" t="s">
         <v>323</v>
       </c>
       <c r="B325" s="1"/>
@@ -6348,7 +6355,7 @@
       <c r="I325" s="12"/>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A326" s="23" t="s">
+      <c r="A326" s="24" t="s">
         <v>324</v>
       </c>
       <c r="B326" s="1"/>
@@ -6361,7 +6368,7 @@
       <c r="I326" s="12"/>
     </row>
     <row r="327" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="23" t="s">
+      <c r="A327" s="24" t="s">
         <v>325</v>
       </c>
       <c r="B327" s="1"/>
@@ -6374,7 +6381,7 @@
       <c r="I327" s="12"/>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A328" s="23" t="s">
+      <c r="A328" s="24" t="s">
         <v>326</v>
       </c>
       <c r="B328" s="2"/>
@@ -6387,7 +6394,7 @@
       <c r="I328" s="10"/>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A329" s="23" t="s">
+      <c r="A329" s="24" t="s">
         <v>327</v>
       </c>
       <c r="B329" s="1"/>
@@ -6400,7 +6407,7 @@
       <c r="I329" s="12"/>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A330" s="23" t="s">
+      <c r="A330" s="24" t="s">
         <v>328</v>
       </c>
       <c r="B330" s="1"/>
@@ -6413,7 +6420,7 @@
       <c r="I330" s="11"/>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A331" s="23" t="s">
+      <c r="A331" s="24" t="s">
         <v>329</v>
       </c>
       <c r="B331" s="1"/>
@@ -6426,7 +6433,7 @@
       <c r="I331" s="12"/>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A332" s="23" t="s">
+      <c r="A332" s="24" t="s">
         <v>324</v>
       </c>
       <c r="B332" s="1"/>
@@ -6439,7 +6446,7 @@
       <c r="I332" s="12"/>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A333" s="23" t="s">
+      <c r="A333" s="24" t="s">
         <v>325</v>
       </c>
       <c r="B333" s="1"/>
@@ -6452,7 +6459,7 @@
       <c r="I333" s="11"/>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A334" s="23" t="s">
+      <c r="A334" s="24" t="s">
         <v>326</v>
       </c>
       <c r="B334" s="1"/>
@@ -6465,7 +6472,7 @@
       <c r="I334" s="12"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A335" s="23" t="s">
+      <c r="A335" s="24" t="s">
         <v>327</v>
       </c>
       <c r="B335" s="1"/>
@@ -6478,7 +6485,7 @@
       <c r="I335" s="12"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A336" s="23" t="s">
+      <c r="A336" s="24" t="s">
         <v>328</v>
       </c>
       <c r="B336" s="1"/>
@@ -6491,7 +6498,7 @@
       <c r="I336" s="12"/>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A337" s="23" t="s">
+      <c r="A337" s="24" t="s">
         <v>329</v>
       </c>
       <c r="B337" s="1"/>
@@ -6504,7 +6511,7 @@
       <c r="I337" s="12"/>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A338" s="23" t="s">
+      <c r="A338" s="24" t="s">
         <v>330</v>
       </c>
       <c r="B338" s="1"/>
@@ -6517,7 +6524,7 @@
       <c r="I338" s="12"/>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A339" s="23" t="s">
+      <c r="A339" s="24" t="s">
         <v>330</v>
       </c>
       <c r="B339" s="1"/>
@@ -6530,7 +6537,7 @@
       <c r="I339" s="12"/>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A340" s="23" t="s">
+      <c r="A340" s="24" t="s">
         <v>331</v>
       </c>
       <c r="B340" s="1"/>
@@ -6543,7 +6550,7 @@
       <c r="I340" s="12"/>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A341" s="23" t="s">
+      <c r="A341" s="24" t="s">
         <v>332</v>
       </c>
       <c r="B341" s="1"/>
@@ -6556,7 +6563,7 @@
       <c r="I341" s="12"/>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A342" s="23" t="s">
+      <c r="A342" s="24" t="s">
         <v>331</v>
       </c>
       <c r="B342" s="1"/>
@@ -6569,7 +6576,7 @@
       <c r="I342" s="12"/>
     </row>
     <row r="343" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="23" t="s">
+      <c r="A343" s="24" t="s">
         <v>332</v>
       </c>
       <c r="B343" s="1"/>
@@ -6582,7 +6589,7 @@
       <c r="I343" s="12"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A344" s="23" t="s">
+      <c r="A344" s="24" t="s">
         <v>333</v>
       </c>
       <c r="B344" s="2"/>
@@ -6595,7 +6602,7 @@
       <c r="I344" s="10"/>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A345" s="23" t="s">
+      <c r="A345" s="24" t="s">
         <v>334</v>
       </c>
       <c r="B345" s="1"/>
@@ -6608,7 +6615,7 @@
       <c r="I345" s="12"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A346" s="23" t="s">
+      <c r="A346" s="24" t="s">
         <v>335</v>
       </c>
       <c r="B346" s="1"/>
@@ -6621,7 +6628,7 @@
       <c r="I346" s="11"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A347" s="23" t="s">
+      <c r="A347" s="24" t="s">
         <v>336</v>
       </c>
       <c r="B347" s="1"/>
@@ -6634,7 +6641,7 @@
       <c r="I347" s="12"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A348" s="23" t="s">
+      <c r="A348" s="24" t="s">
         <v>336</v>
       </c>
       <c r="B348" s="1"/>
@@ -6647,7 +6654,7 @@
       <c r="I348" s="12"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A349" s="23" t="s">
+      <c r="A349" s="24" t="s">
         <v>337</v>
       </c>
       <c r="B349" s="1"/>
@@ -6660,7 +6667,7 @@
       <c r="I349" s="11"/>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A350" s="23" t="s">
+      <c r="A350" s="24" t="s">
         <v>338</v>
       </c>
       <c r="B350" s="1"/>
@@ -6673,7 +6680,7 @@
       <c r="I350" s="12"/>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A351" s="23" t="s">
+      <c r="A351" s="24" t="s">
         <v>339</v>
       </c>
       <c r="B351" s="1"/>
@@ -6686,7 +6693,7 @@
       <c r="I351" s="12"/>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A352" s="23" t="s">
+      <c r="A352" s="24" t="s">
         <v>340</v>
       </c>
       <c r="B352" s="1"/>
@@ -6699,7 +6706,7 @@
       <c r="I352" s="12"/>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A353" s="23" t="s">
+      <c r="A353" s="24" t="s">
         <v>341</v>
       </c>
       <c r="B353" s="1"/>
@@ -6712,7 +6719,7 @@
       <c r="I353" s="12"/>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A354" s="23" t="s">
+      <c r="A354" s="24" t="s">
         <v>342</v>
       </c>
       <c r="B354" s="1"/>
@@ -6725,7 +6732,7 @@
       <c r="I354" s="12"/>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A355" s="23" t="s">
+      <c r="A355" s="24" t="s">
         <v>343</v>
       </c>
       <c r="B355" s="1"/>
@@ -6738,7 +6745,7 @@
       <c r="I355" s="12"/>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A356" s="23" t="s">
+      <c r="A356" s="24" t="s">
         <v>344</v>
       </c>
       <c r="B356" s="1"/>
@@ -6751,7 +6758,7 @@
       <c r="I356" s="12"/>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A357" s="23" t="s">
+      <c r="A357" s="24" t="s">
         <v>345</v>
       </c>
       <c r="B357" s="1"/>
@@ -6764,7 +6771,7 @@
       <c r="I357" s="12"/>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A358" s="23" t="s">
+      <c r="A358" s="24" t="s">
         <v>346</v>
       </c>
       <c r="B358" s="1"/>
@@ -6777,7 +6784,7 @@
       <c r="I358" s="12"/>
     </row>
     <row r="359" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="23" t="s">
+      <c r="A359" s="24" t="s">
         <v>347</v>
       </c>
       <c r="B359" s="1"/>
@@ -6790,7 +6797,7 @@
       <c r="I359" s="12"/>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A360" s="23" t="s">
+      <c r="A360" s="24" t="s">
         <v>348</v>
       </c>
       <c r="B360" s="2"/>
@@ -6803,7 +6810,7 @@
       <c r="I360" s="10"/>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A361" s="23" t="s">
+      <c r="A361" s="24" t="s">
         <v>349</v>
       </c>
       <c r="B361" s="1"/>
@@ -6816,7 +6823,7 @@
       <c r="I361" s="12"/>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A362" s="23" t="s">
+      <c r="A362" s="24" t="s">
         <v>350</v>
       </c>
       <c r="B362" s="1"/>
@@ -6829,7 +6836,7 @@
       <c r="I362" s="11"/>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A363" s="23" t="s">
+      <c r="A363" s="24" t="s">
         <v>351</v>
       </c>
       <c r="B363" s="1"/>
@@ -6842,7 +6849,7 @@
       <c r="I363" s="12"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A364" s="23" t="s">
+      <c r="A364" s="24" t="s">
         <v>352</v>
       </c>
       <c r="B364" s="1"/>
@@ -6855,7 +6862,7 @@
       <c r="I364" s="12"/>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A365" s="23" t="s">
+      <c r="A365" s="24" t="s">
         <v>353</v>
       </c>
       <c r="B365" s="1"/>
@@ -6868,7 +6875,7 @@
       <c r="I365" s="11"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A366" s="23" t="s">
+      <c r="A366" s="24" t="s">
         <v>354</v>
       </c>
       <c r="B366" s="1"/>
@@ -6881,7 +6888,7 @@
       <c r="I366" s="12"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A367" s="23" t="s">
+      <c r="A367" s="24" t="s">
         <v>355</v>
       </c>
       <c r="B367" s="1"/>
@@ -6894,7 +6901,7 @@
       <c r="I367" s="12"/>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A368" s="23" t="s">
+      <c r="A368" s="24" t="s">
         <v>356</v>
       </c>
       <c r="B368" s="1"/>
@@ -6907,7 +6914,7 @@
       <c r="I368" s="12"/>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A369" s="23" t="s">
+      <c r="A369" s="24" t="s">
         <v>357</v>
       </c>
       <c r="B369" s="1"/>
@@ -6920,7 +6927,7 @@
       <c r="I369" s="12"/>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A370" s="23" t="s">
+      <c r="A370" s="24" t="s">
         <v>358</v>
       </c>
       <c r="B370" s="1"/>
@@ -6933,7 +6940,7 @@
       <c r="I370" s="12"/>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A371" s="23" t="s">
+      <c r="A371" s="24" t="s">
         <v>359</v>
       </c>
       <c r="B371" s="1"/>
@@ -6946,7 +6953,7 @@
       <c r="I371" s="12"/>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A372" s="23" t="s">
+      <c r="A372" s="24" t="s">
         <v>360</v>
       </c>
       <c r="B372" s="1"/>
@@ -6959,7 +6966,7 @@
       <c r="I372" s="12"/>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A373" s="23" t="s">
+      <c r="A373" s="24" t="s">
         <v>361</v>
       </c>
       <c r="B373" s="1"/>
@@ -6972,7 +6979,7 @@
       <c r="I373" s="12"/>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A374" s="23" t="s">
+      <c r="A374" s="24" t="s">
         <v>362</v>
       </c>
       <c r="B374" s="1"/>
@@ -6985,7 +6992,7 @@
       <c r="I374" s="12"/>
     </row>
     <row r="375" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="23" t="s">
+      <c r="A375" s="24" t="s">
         <v>363</v>
       </c>
       <c r="B375" s="1"/>
@@ -6998,7 +7005,7 @@
       <c r="I375" s="12"/>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A376" s="23" t="s">
+      <c r="A376" s="24" t="s">
         <v>364</v>
       </c>
       <c r="B376" s="2"/>
@@ -7011,7 +7018,7 @@
       <c r="I376" s="10"/>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A377" s="23" t="s">
+      <c r="A377" s="24" t="s">
         <v>365</v>
       </c>
       <c r="B377" s="1"/>
@@ -7024,7 +7031,7 @@
       <c r="I377" s="12"/>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A378" s="23" t="s">
+      <c r="A378" s="24" t="s">
         <v>366</v>
       </c>
       <c r="B378" s="1"/>
@@ -7037,7 +7044,7 @@
       <c r="I378" s="11"/>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A379" s="23" t="s">
+      <c r="A379" s="24" t="s">
         <v>367</v>
       </c>
       <c r="B379" s="1"/>
@@ -7050,7 +7057,7 @@
       <c r="I379" s="12"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A380" s="23" t="s">
+      <c r="A380" s="24" t="s">
         <v>368</v>
       </c>
       <c r="B380" s="1"/>
@@ -7063,7 +7070,7 @@
       <c r="I380" s="12"/>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A381" s="23" t="s">
+      <c r="A381" s="24" t="s">
         <v>369</v>
       </c>
       <c r="B381" s="1"/>
@@ -7076,7 +7083,7 @@
       <c r="I381" s="11"/>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A382" s="23" t="s">
+      <c r="A382" s="24" t="s">
         <v>370</v>
       </c>
       <c r="B382" s="1"/>
@@ -7089,7 +7096,7 @@
       <c r="I382" s="12"/>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A383" s="23" t="s">
+      <c r="A383" s="24" t="s">
         <v>371</v>
       </c>
       <c r="B383" s="1"/>
@@ -7102,7 +7109,7 @@
       <c r="I383" s="12"/>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A384" s="23" t="s">
+      <c r="A384" s="24" t="s">
         <v>372</v>
       </c>
       <c r="B384" s="1"/>
@@ -7115,7 +7122,7 @@
       <c r="I384" s="12"/>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A385" s="23" t="s">
+      <c r="A385" s="24" t="s">
         <v>373</v>
       </c>
       <c r="B385" s="1"/>
@@ -7128,7 +7135,7 @@
       <c r="I385" s="12"/>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A386" s="23" t="s">
+      <c r="A386" s="24" t="s">
         <v>374</v>
       </c>
       <c r="B386" s="1"/>
@@ -7141,7 +7148,7 @@
       <c r="I386" s="12"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A387" s="23" t="s">
+      <c r="A387" s="24" t="s">
         <v>375</v>
       </c>
       <c r="B387" s="1"/>
@@ -7154,7 +7161,7 @@
       <c r="I387" s="12"/>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A388" s="23" t="s">
+      <c r="A388" s="24" t="s">
         <v>376</v>
       </c>
       <c r="B388" s="1"/>
@@ -7167,7 +7174,7 @@
       <c r="I388" s="12"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A389" s="23" t="s">
+      <c r="A389" s="24" t="s">
         <v>377</v>
       </c>
       <c r="B389" s="1"/>
@@ -7180,7 +7187,7 @@
       <c r="I389" s="12"/>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A390" s="23" t="s">
+      <c r="A390" s="24" t="s">
         <v>378</v>
       </c>
       <c r="B390" s="1"/>
@@ -7193,7 +7200,7 @@
       <c r="I390" s="12"/>
     </row>
     <row r="391" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="23" t="s">
+      <c r="A391" s="24" t="s">
         <v>379</v>
       </c>
       <c r="B391" s="1"/>
@@ -7206,7 +7213,7 @@
       <c r="I391" s="12"/>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A392" s="23" t="s">
+      <c r="A392" s="24" t="s">
         <v>380</v>
       </c>
       <c r="B392" s="2"/>
@@ -7219,7 +7226,7 @@
       <c r="I392" s="10"/>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A393" s="23" t="s">
+      <c r="A393" s="24" t="s">
         <v>381</v>
       </c>
       <c r="B393" s="1"/>
@@ -7232,7 +7239,7 @@
       <c r="I393" s="12"/>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A394" s="23" t="s">
+      <c r="A394" s="24" t="s">
         <v>382</v>
       </c>
       <c r="B394" s="1"/>
@@ -7245,7 +7252,7 @@
       <c r="I394" s="11"/>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A395" s="23" t="s">
+      <c r="A395" s="24" t="s">
         <v>383</v>
       </c>
       <c r="B395" s="1"/>
@@ -7258,7 +7265,7 @@
       <c r="I395" s="12"/>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A396" s="23" t="s">
+      <c r="A396" s="24" t="s">
         <v>384</v>
       </c>
       <c r="B396" s="1"/>
@@ -7271,7 +7278,7 @@
       <c r="I396" s="12"/>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A397" s="23" t="s">
+      <c r="A397" s="24" t="s">
         <v>385</v>
       </c>
       <c r="B397" s="1"/>
@@ -7284,7 +7291,7 @@
       <c r="I397" s="11"/>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A398" s="23" t="s">
+      <c r="A398" s="24" t="s">
         <v>386</v>
       </c>
       <c r="B398" s="1"/>
@@ -7297,7 +7304,7 @@
       <c r="I398" s="12"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A399" s="23" t="s">
+      <c r="A399" s="24" t="s">
         <v>387</v>
       </c>
       <c r="B399" s="1"/>
@@ -7310,7 +7317,7 @@
       <c r="I399" s="12"/>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A400" s="23" t="s">
+      <c r="A400" s="24" t="s">
         <v>388</v>
       </c>
       <c r="B400" s="1"/>
@@ -7323,7 +7330,7 @@
       <c r="I400" s="12"/>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A401" s="23" t="s">
+      <c r="A401" s="24" t="s">
         <v>389</v>
       </c>
       <c r="B401" s="1"/>
@@ -7336,7 +7343,7 @@
       <c r="I401" s="12"/>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A402" s="23" t="s">
+      <c r="A402" s="24" t="s">
         <v>390</v>
       </c>
       <c r="B402" s="1"/>
@@ -7349,7 +7356,7 @@
       <c r="I402" s="12"/>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A403" s="23" t="s">
+      <c r="A403" s="24" t="s">
         <v>391</v>
       </c>
       <c r="B403" s="1"/>
@@ -7362,7 +7369,7 @@
       <c r="I403" s="12"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A404" s="23" t="s">
+      <c r="A404" s="24" t="s">
         <v>392</v>
       </c>
       <c r="B404" s="1"/>
@@ -7375,7 +7382,7 @@
       <c r="I404" s="12"/>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A405" s="23" t="s">
+      <c r="A405" s="24" t="s">
         <v>393</v>
       </c>
       <c r="B405" s="1"/>
@@ -7388,7 +7395,7 @@
       <c r="I405" s="12"/>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A406" s="23" t="s">
+      <c r="A406" s="24" t="s">
         <v>394</v>
       </c>
       <c r="B406" s="1"/>
@@ -7401,7 +7408,7 @@
       <c r="I406" s="12"/>
     </row>
     <row r="407" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="23" t="s">
+      <c r="A407" s="24" t="s">
         <v>395</v>
       </c>
       <c r="B407" s="1"/>
@@ -7414,7 +7421,7 @@
       <c r="I407" s="12"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A408" s="23" t="s">
+      <c r="A408" s="24" t="s">
         <v>396</v>
       </c>
       <c r="B408" s="2"/>
@@ -7427,7 +7434,7 @@
       <c r="I408" s="10"/>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A409" s="23" t="s">
+      <c r="A409" s="24" t="s">
         <v>397</v>
       </c>
       <c r="B409" s="1"/>
@@ -7440,7 +7447,7 @@
       <c r="I409" s="12"/>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A410" s="23" t="s">
+      <c r="A410" s="24" t="s">
         <v>398</v>
       </c>
       <c r="B410" s="1"/>
@@ -7453,7 +7460,7 @@
       <c r="I410" s="11"/>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A411" s="23" t="s">
+      <c r="A411" s="24" t="s">
         <v>399</v>
       </c>
       <c r="B411" s="1"/>
@@ -7466,7 +7473,7 @@
       <c r="I411" s="12"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A412" s="23" t="s">
+      <c r="A412" s="24" t="s">
         <v>400</v>
       </c>
       <c r="B412" s="1"/>
@@ -7479,7 +7486,7 @@
       <c r="I412" s="12"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A413" s="23" t="s">
+      <c r="A413" s="24" t="s">
         <v>401</v>
       </c>
       <c r="B413" s="1"/>
@@ -7492,7 +7499,7 @@
       <c r="I413" s="11"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A414" s="23" t="s">
+      <c r="A414" s="24" t="s">
         <v>402</v>
       </c>
       <c r="B414" s="1"/>
@@ -7505,7 +7512,7 @@
       <c r="I414" s="12"/>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A415" s="23" t="s">
+      <c r="A415" s="24" t="s">
         <v>403</v>
       </c>
       <c r="B415" s="1"/>
@@ -7518,7 +7525,7 @@
       <c r="I415" s="12"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A416" s="23" t="s">
+      <c r="A416" s="24" t="s">
         <v>404</v>
       </c>
       <c r="B416" s="1"/>
@@ -7531,7 +7538,7 @@
       <c r="I416" s="12"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A417" s="23" t="s">
+      <c r="A417" s="24" t="s">
         <v>405</v>
       </c>
       <c r="B417" s="1"/>
@@ -7544,7 +7551,7 @@
       <c r="I417" s="12"/>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A418" s="23" t="s">
+      <c r="A418" s="24" t="s">
         <v>406</v>
       </c>
       <c r="B418" s="1"/>
@@ -7557,7 +7564,7 @@
       <c r="I418" s="12"/>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A419" s="23" t="s">
+      <c r="A419" s="24" t="s">
         <v>407</v>
       </c>
       <c r="B419" s="1"/>
@@ -7570,7 +7577,7 @@
       <c r="I419" s="12"/>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A420" s="23" t="s">
+      <c r="A420" s="24" t="s">
         <v>408</v>
       </c>
       <c r="B420" s="1"/>
@@ -7583,7 +7590,7 @@
       <c r="I420" s="12"/>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A421" s="23" t="s">
+      <c r="A421" s="24" t="s">
         <v>409</v>
       </c>
       <c r="B421" s="1"/>
@@ -7596,7 +7603,7 @@
       <c r="I421" s="12"/>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A422" s="23" t="s">
+      <c r="A422" s="24" t="s">
         <v>410</v>
       </c>
       <c r="B422" s="1"/>
@@ -7609,7 +7616,7 @@
       <c r="I422" s="12"/>
     </row>
     <row r="423" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="23" t="s">
+      <c r="A423" s="24" t="s">
         <v>411</v>
       </c>
       <c r="B423" s="1"/>
@@ -7622,7 +7629,7 @@
       <c r="I423" s="12"/>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A424" s="23" t="s">
+      <c r="A424" s="24" t="s">
         <v>412</v>
       </c>
       <c r="B424" s="2"/>
@@ -7635,7 +7642,7 @@
       <c r="I424" s="10"/>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A425" s="23" t="s">
+      <c r="A425" s="24" t="s">
         <v>413</v>
       </c>
       <c r="B425" s="1"/>
@@ -7648,7 +7655,7 @@
       <c r="I425" s="12"/>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A426" s="23" t="s">
+      <c r="A426" s="24" t="s">
         <v>414</v>
       </c>
       <c r="B426" s="1"/>
@@ -7661,7 +7668,7 @@
       <c r="I426" s="11"/>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A427" s="23" t="s">
+      <c r="A427" s="24" t="s">
         <v>415</v>
       </c>
       <c r="B427" s="1"/>
@@ -7674,7 +7681,7 @@
       <c r="I427" s="12"/>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A428" s="23" t="s">
+      <c r="A428" s="24" t="s">
         <v>416</v>
       </c>
       <c r="B428" s="1"/>
@@ -7687,7 +7694,7 @@
       <c r="I428" s="12"/>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A429" s="23" t="s">
+      <c r="A429" s="24" t="s">
         <v>417</v>
       </c>
       <c r="B429" s="1"/>
@@ -7700,7 +7707,7 @@
       <c r="I429" s="11"/>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A430" s="23" t="s">
+      <c r="A430" s="24" t="s">
         <v>418</v>
       </c>
       <c r="B430" s="1"/>
@@ -7713,7 +7720,7 @@
       <c r="I430" s="12"/>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A431" s="23" t="s">
+      <c r="A431" s="24" t="s">
         <v>419</v>
       </c>
       <c r="B431" s="1"/>
@@ -7726,7 +7733,7 @@
       <c r="I431" s="12"/>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A432" s="23" t="s">
+      <c r="A432" s="24" t="s">
         <v>420</v>
       </c>
       <c r="B432" s="1"/>
@@ -7739,7 +7746,7 @@
       <c r="I432" s="12"/>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A433" s="23" t="s">
+      <c r="A433" s="24" t="s">
         <v>421</v>
       </c>
       <c r="B433" s="1"/>
@@ -7752,7 +7759,7 @@
       <c r="I433" s="12"/>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A434" s="23" t="s">
+      <c r="A434" s="24" t="s">
         <v>422</v>
       </c>
       <c r="B434" s="1"/>
@@ -7765,7 +7772,7 @@
       <c r="I434" s="12"/>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A435" s="23" t="s">
+      <c r="A435" s="24" t="s">
         <v>423</v>
       </c>
       <c r="B435" s="1"/>
@@ -7778,7 +7785,7 @@
       <c r="I435" s="12"/>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A436" s="23" t="s">
+      <c r="A436" s="24" t="s">
         <v>424</v>
       </c>
       <c r="B436" s="1"/>
@@ -7791,7 +7798,7 @@
       <c r="I436" s="12"/>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A437" s="23" t="s">
+      <c r="A437" s="24" t="s">
         <v>425</v>
       </c>
       <c r="B437" s="1"/>
@@ -7804,7 +7811,7 @@
       <c r="I437" s="12"/>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A438" s="23" t="s">
+      <c r="A438" s="24" t="s">
         <v>426</v>
       </c>
       <c r="B438" s="1"/>
@@ -7817,7 +7824,7 @@
       <c r="I438" s="12"/>
     </row>
     <row r="439" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="23" t="s">
+      <c r="A439" s="24" t="s">
         <v>427</v>
       </c>
       <c r="B439" s="1"/>
@@ -7830,7 +7837,7 @@
       <c r="I439" s="12"/>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A440" s="23" t="s">
+      <c r="A440" s="24" t="s">
         <v>428</v>
       </c>
       <c r="B440" s="2"/>
@@ -7843,7 +7850,7 @@
       <c r="I440" s="10"/>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A441" s="23" t="s">
+      <c r="A441" s="24" t="s">
         <v>429</v>
       </c>
       <c r="B441" s="1"/>
@@ -7856,7 +7863,7 @@
       <c r="I441" s="12"/>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A442" s="23" t="s">
+      <c r="A442" s="24" t="s">
         <v>430</v>
       </c>
       <c r="B442" s="1"/>
@@ -7869,7 +7876,7 @@
       <c r="I442" s="11"/>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A443" s="23" t="s">
+      <c r="A443" s="24" t="s">
         <v>431</v>
       </c>
       <c r="B443" s="1"/>
@@ -7882,7 +7889,7 @@
       <c r="I443" s="12"/>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A444" s="23" t="s">
+      <c r="A444" s="24" t="s">
         <v>429</v>
       </c>
       <c r="B444" s="1"/>
@@ -7895,7 +7902,7 @@
       <c r="I444" s="12"/>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A445" s="23" t="s">
+      <c r="A445" s="24" t="s">
         <v>431</v>
       </c>
       <c r="B445" s="1"/>
@@ -7908,7 +7915,7 @@
       <c r="I445" s="11"/>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A446" s="23" t="s">
+      <c r="A446" s="24" t="s">
         <v>432</v>
       </c>
       <c r="B446" s="1"/>
@@ -7921,7 +7928,7 @@
       <c r="I446" s="12"/>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A447" s="23" t="s">
+      <c r="A447" s="24" t="s">
         <v>433</v>
       </c>
       <c r="B447" s="1"/>
@@ -7934,7 +7941,7 @@
       <c r="I447" s="12"/>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A448" s="23" t="s">
+      <c r="A448" s="24" t="s">
         <v>434</v>
       </c>
       <c r="B448" s="1"/>
@@ -7947,7 +7954,7 @@
       <c r="I448" s="12"/>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A449" s="23" t="s">
+      <c r="A449" s="24" t="s">
         <v>435</v>
       </c>
       <c r="B449" s="1"/>
@@ -7960,7 +7967,7 @@
       <c r="I449" s="12"/>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A450" s="23" t="s">
+      <c r="A450" s="24" t="s">
         <v>436</v>
       </c>
       <c r="B450" s="1"/>
@@ -7973,7 +7980,7 @@
       <c r="I450" s="12"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A451" s="23" t="s">
+      <c r="A451" s="24" t="s">
         <v>437</v>
       </c>
       <c r="B451" s="1"/>
@@ -7986,7 +7993,7 @@
       <c r="I451" s="12"/>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A452" s="23" t="s">
+      <c r="A452" s="24" t="s">
         <v>436</v>
       </c>
       <c r="B452" s="1"/>
@@ -7999,7 +8006,7 @@
       <c r="I452" s="12"/>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A453" s="23" t="s">
+      <c r="A453" s="24" t="s">
         <v>437</v>
       </c>
       <c r="B453" s="1"/>
@@ -8012,7 +8019,7 @@
       <c r="I453" s="12"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A454" s="23" t="s">
+      <c r="A454" s="24" t="s">
         <v>438</v>
       </c>
       <c r="B454" s="1"/>
@@ -8025,7 +8032,7 @@
       <c r="I454" s="12"/>
     </row>
     <row r="455" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A455" s="23" t="s">
+      <c r="A455" s="24" t="s">
         <v>439</v>
       </c>
       <c r="B455" s="1"/>
@@ -8038,7 +8045,7 @@
       <c r="I455" s="12"/>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A456" s="23" t="s">
+      <c r="A456" s="24" t="s">
         <v>440</v>
       </c>
       <c r="B456" s="2"/>
@@ -8051,7 +8058,7 @@
       <c r="I456" s="10"/>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A457" s="23" t="s">
+      <c r="A457" s="24" t="s">
         <v>438</v>
       </c>
       <c r="B457" s="1"/>
@@ -8064,7 +8071,7 @@
       <c r="I457" s="12"/>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A458" s="23" t="s">
+      <c r="A458" s="24" t="s">
         <v>439</v>
       </c>
       <c r="B458" s="1"/>
@@ -8077,7 +8084,7 @@
       <c r="I458" s="11"/>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A459" s="23" t="s">
+      <c r="A459" s="24" t="s">
         <v>441</v>
       </c>
       <c r="B459" s="1"/>
@@ -8090,7 +8097,7 @@
       <c r="I459" s="12"/>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A460" s="23" t="s">
+      <c r="A460" s="24" t="s">
         <v>442</v>
       </c>
       <c r="B460" s="1"/>
@@ -8103,7 +8110,7 @@
       <c r="I460" s="12"/>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A461" s="23" t="s">
+      <c r="A461" s="24" t="s">
         <v>443</v>
       </c>
       <c r="B461" s="1"/>
@@ -8116,7 +8123,7 @@
       <c r="I461" s="11"/>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A462" s="23" t="s">
+      <c r="A462" s="24" t="s">
         <v>444</v>
       </c>
       <c r="B462" s="1"/>
@@ -8129,7 +8136,7 @@
       <c r="I462" s="12"/>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A463" s="23" t="s">
+      <c r="A463" s="24" t="s">
         <v>445</v>
       </c>
       <c r="B463" s="1"/>
@@ -8142,7 +8149,7 @@
       <c r="I463" s="12"/>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A464" s="23" t="s">
+      <c r="A464" s="24" t="s">
         <v>446</v>
       </c>
       <c r="B464" s="1"/>
@@ -8155,7 +8162,7 @@
       <c r="I464" s="12"/>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A465" s="23" t="s">
+      <c r="A465" s="24" t="s">
         <v>447</v>
       </c>
       <c r="B465" s="1"/>
@@ -8168,7 +8175,7 @@
       <c r="I465" s="12"/>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A466" s="23" t="s">
+      <c r="A466" s="24" t="s">
         <v>448</v>
       </c>
       <c r="B466" s="1"/>
@@ -8181,7 +8188,7 @@
       <c r="I466" s="12"/>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A467" s="23" t="s">
+      <c r="A467" s="24" t="s">
         <v>449</v>
       </c>
       <c r="B467" s="1"/>
@@ -8194,7 +8201,7 @@
       <c r="I467" s="12"/>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A468" s="23" t="s">
+      <c r="A468" s="24" t="s">
         <v>450</v>
       </c>
       <c r="B468" s="1"/>
@@ -8207,7 +8214,7 @@
       <c r="I468" s="12"/>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A469" s="23" t="s">
+      <c r="A469" s="24" t="s">
         <v>451</v>
       </c>
       <c r="B469" s="1"/>
@@ -8220,7 +8227,7 @@
       <c r="I469" s="12"/>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A470" s="23" t="s">
+      <c r="A470" s="24" t="s">
         <v>452</v>
       </c>
       <c r="B470" s="1"/>
@@ -8233,7 +8240,7 @@
       <c r="I470" s="12"/>
     </row>
     <row r="471" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A471" s="23" t="s">
+      <c r="A471" s="24" t="s">
         <v>453</v>
       </c>
       <c r="B471" s="1"/>
@@ -8246,7 +8253,7 @@
       <c r="I471" s="12"/>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A472" s="23" t="s">
+      <c r="A472" s="24" t="s">
         <v>454</v>
       </c>
       <c r="B472" s="2"/>
@@ -8259,7 +8266,7 @@
       <c r="I472" s="10"/>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A473" s="23" t="s">
+      <c r="A473" s="24" t="s">
         <v>455</v>
       </c>
       <c r="B473" s="1"/>
@@ -8272,7 +8279,7 @@
       <c r="I473" s="12"/>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A474" s="23" t="s">
+      <c r="A474" s="24" t="s">
         <v>456</v>
       </c>
       <c r="B474" s="1"/>
@@ -8285,7 +8292,7 @@
       <c r="I474" s="11"/>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A475" s="23" t="s">
+      <c r="A475" s="24" t="s">
         <v>457</v>
       </c>
       <c r="B475" s="1"/>
@@ -8298,7 +8305,7 @@
       <c r="I475" s="12"/>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A476" s="23" t="s">
+      <c r="A476" s="24" t="s">
         <v>458</v>
       </c>
       <c r="B476" s="1"/>
@@ -8311,7 +8318,7 @@
       <c r="I476" s="12"/>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A477" s="23" t="s">
+      <c r="A477" s="24" t="s">
         <v>459</v>
       </c>
       <c r="B477" s="1"/>
@@ -8324,7 +8331,7 @@
       <c r="I477" s="11"/>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A478" s="23" t="s">
+      <c r="A478" s="24" t="s">
         <v>460</v>
       </c>
       <c r="B478" s="1"/>
@@ -8337,7 +8344,7 @@
       <c r="I478" s="12"/>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A479" s="23" t="s">
+      <c r="A479" s="24" t="s">
         <v>461</v>
       </c>
       <c r="B479" s="1"/>
@@ -8350,7 +8357,7 @@
       <c r="I479" s="12"/>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A480" s="23" t="s">
+      <c r="A480" s="24" t="s">
         <v>462</v>
       </c>
       <c r="B480" s="1"/>
@@ -8363,7 +8370,7 @@
       <c r="I480" s="12"/>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A481" s="23" t="s">
+      <c r="A481" s="24" t="s">
         <v>463</v>
       </c>
       <c r="B481" s="1"/>
@@ -8376,7 +8383,7 @@
       <c r="I481" s="12"/>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A482" s="23" t="s">
+      <c r="A482" s="24" t="s">
         <v>464</v>
       </c>
       <c r="B482" s="1"/>
@@ -8389,7 +8396,7 @@
       <c r="I482" s="12"/>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A483" s="23" t="s">
+      <c r="A483" s="24" t="s">
         <v>465</v>
       </c>
       <c r="B483" s="1"/>
@@ -8402,7 +8409,7 @@
       <c r="I483" s="12"/>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A484" s="23" t="s">
+      <c r="A484" s="24" t="s">
         <v>466</v>
       </c>
       <c r="B484" s="1"/>
@@ -8415,7 +8422,7 @@
       <c r="I484" s="12"/>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A485" s="23" t="s">
+      <c r="A485" s="24" t="s">
         <v>467</v>
       </c>
       <c r="B485" s="1"/>
@@ -8428,7 +8435,7 @@
       <c r="I485" s="12"/>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A486" s="23" t="s">
+      <c r="A486" s="24" t="s">
         <v>468</v>
       </c>
       <c r="B486" s="1"/>
@@ -8441,7 +8448,7 @@
       <c r="I486" s="12"/>
     </row>
     <row r="487" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="23" t="s">
+      <c r="A487" s="24" t="s">
         <v>469</v>
       </c>
       <c r="B487" s="1"/>
@@ -8454,7 +8461,7 @@
       <c r="I487" s="12"/>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A488" s="23" t="s">
+      <c r="A488" s="24" t="s">
         <v>470</v>
       </c>
       <c r="B488" s="2"/>
@@ -8467,7 +8474,7 @@
       <c r="I488" s="10"/>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A489" s="23" t="s">
+      <c r="A489" s="24" t="s">
         <v>471</v>
       </c>
       <c r="B489" s="1"/>
@@ -8480,7 +8487,7 @@
       <c r="I489" s="12"/>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A490" s="23" t="s">
+      <c r="A490" s="24" t="s">
         <v>472</v>
       </c>
       <c r="B490" s="1"/>
@@ -8493,7 +8500,7 @@
       <c r="I490" s="11"/>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A491" s="23" t="s">
+      <c r="A491" s="24" t="s">
         <v>473</v>
       </c>
       <c r="B491" s="1"/>
@@ -8506,7 +8513,7 @@
       <c r="I491" s="12"/>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A492" s="23" t="s">
+      <c r="A492" s="24" t="s">
         <v>474</v>
       </c>
       <c r="B492" s="1"/>
@@ -8519,7 +8526,7 @@
       <c r="I492" s="12"/>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A493" s="23" t="s">
+      <c r="A493" s="24" t="s">
         <v>475</v>
       </c>
       <c r="B493" s="1"/>
@@ -8532,7 +8539,7 @@
       <c r="I493" s="11"/>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A494" s="23" t="s">
+      <c r="A494" s="24" t="s">
         <v>476</v>
       </c>
       <c r="B494" s="1"/>
@@ -8545,7 +8552,7 @@
       <c r="I494" s="12"/>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A495" s="23" t="s">
+      <c r="A495" s="24" t="s">
         <v>477</v>
       </c>
       <c r="B495" s="1"/>
@@ -8558,7 +8565,7 @@
       <c r="I495" s="12"/>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A496" s="23" t="s">
+      <c r="A496" s="24" t="s">
         <v>478</v>
       </c>
       <c r="B496" s="1"/>
@@ -8571,7 +8578,7 @@
       <c r="I496" s="12"/>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A497" s="23" t="s">
+      <c r="A497" s="24" t="s">
         <v>479</v>
       </c>
       <c r="B497" s="1"/>
@@ -8584,7 +8591,7 @@
       <c r="I497" s="12"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A498" s="23" t="s">
+      <c r="A498" s="24" t="s">
         <v>480</v>
       </c>
       <c r="B498" s="1"/>
@@ -8597,7 +8604,7 @@
       <c r="I498" s="12"/>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A499" s="23" t="s">
+      <c r="A499" s="24" t="s">
         <v>481</v>
       </c>
       <c r="B499" s="1"/>
@@ -8610,7 +8617,7 @@
       <c r="I499" s="12"/>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A500" s="23" t="s">
+      <c r="A500" s="24" t="s">
         <v>482</v>
       </c>
       <c r="B500" s="1"/>
@@ -8623,7 +8630,7 @@
       <c r="I500" s="12"/>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A501" s="23" t="s">
+      <c r="A501" s="24" t="s">
         <v>483</v>
       </c>
       <c r="B501" s="1"/>
@@ -8636,7 +8643,7 @@
       <c r="I501" s="12"/>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A502" s="23" t="s">
+      <c r="A502" s="24" t="s">
         <v>484</v>
       </c>
       <c r="B502" s="1"/>
@@ -8649,7 +8656,7 @@
       <c r="I502" s="12"/>
     </row>
     <row r="503" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="23" t="s">
+      <c r="A503" s="24" t="s">
         <v>485</v>
       </c>
       <c r="B503" s="1"/>
@@ -8662,7 +8669,7 @@
       <c r="I503" s="12"/>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A504" s="23" t="s">
+      <c r="A504" s="24" t="s">
         <v>486</v>
       </c>
       <c r="B504" s="2"/>
@@ -8675,7 +8682,7 @@
       <c r="I504" s="10"/>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A505" s="23" t="s">
+      <c r="A505" s="24" t="s">
         <v>487</v>
       </c>
       <c r="B505" s="1"/>
@@ -8688,7 +8695,7 @@
       <c r="I505" s="12"/>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A506" s="23" t="s">
+      <c r="A506" s="24" t="s">
         <v>488</v>
       </c>
       <c r="B506" s="1"/>
@@ -8701,7 +8708,7 @@
       <c r="I506" s="11"/>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A507" s="23" t="s">
+      <c r="A507" s="24" t="s">
         <v>489</v>
       </c>
       <c r="B507" s="1"/>
@@ -8714,7 +8721,7 @@
       <c r="I507" s="12"/>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A508" s="23" t="s">
+      <c r="A508" s="24" t="s">
         <v>490</v>
       </c>
       <c r="B508" s="1"/>
@@ -8727,7 +8734,7 @@
       <c r="I508" s="12"/>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A509" s="23" t="s">
+      <c r="A509" s="24" t="s">
         <v>491</v>
       </c>
       <c r="B509" s="1"/>

--- a/src/main/resources/newExcel/1.xlsx
+++ b/src/main/resources/newExcel/1.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="493">
   <si>
     <t>Відомість</t>
   </si>
@@ -1504,6 +1504,9 @@
   </si>
   <si>
     <t>РАДІОСТАНЦІЯ "KENWOOD" TK-90 (КОРОТКОХВИЛЬОВОГО ДІАПАЗОНУ)</t>
+  </si>
+  <si>
+    <t>станом на 07.10.2021</t>
   </si>
 </sst>
 </file>
@@ -1511,13 +1514,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="12.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -1768,7 +1775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1816,6 +1823,9 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2158,7 +2168,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>492</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2221,7 +2231,7 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="2"/>
@@ -2234,7 +2244,7 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1"/>
@@ -2247,7 +2257,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1"/>
@@ -2260,7 +2270,7 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1"/>
@@ -2273,7 +2283,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="1"/>
@@ -2286,7 +2296,7 @@
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1"/>
@@ -2299,7 +2309,7 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1"/>
@@ -2312,7 +2322,7 @@
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="1"/>
@@ -2325,7 +2335,7 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1"/>
@@ -2338,7 +2348,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="1"/>
@@ -2351,7 +2361,7 @@
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1"/>
@@ -2364,7 +2374,7 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1"/>
@@ -2377,7 +2387,7 @@
       <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1"/>
@@ -2390,7 +2400,7 @@
       <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B21" s="1"/>
@@ -2403,7 +2413,7 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="1"/>
@@ -2416,7 +2426,7 @@
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="1"/>
@@ -2429,7 +2439,7 @@
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B24" s="2"/>
@@ -2442,7 +2452,7 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="1"/>
@@ -2455,7 +2465,7 @@
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="1"/>
@@ -2468,7 +2478,7 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="1"/>
@@ -2481,7 +2491,7 @@
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="1"/>
@@ -2494,7 +2504,7 @@
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="1"/>
@@ -2507,7 +2517,7 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B30" s="1"/>
@@ -2520,7 +2530,7 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B31" s="1"/>
@@ -2533,7 +2543,7 @@
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="1"/>
@@ -2546,7 +2556,7 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="1"/>
@@ -2559,7 +2569,7 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B34" s="1"/>
@@ -2572,7 +2582,7 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="1"/>
@@ -2585,7 +2595,7 @@
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B36" s="1"/>
@@ -2598,7 +2608,7 @@
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="1"/>
@@ -2611,7 +2621,7 @@
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="1"/>
@@ -2624,7 +2634,7 @@
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="1"/>
@@ -2637,7 +2647,7 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2"/>
@@ -2650,7 +2660,7 @@
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="1"/>
@@ -2663,7 +2673,7 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="1"/>
@@ -2676,7 +2686,7 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="1"/>
@@ -2689,7 +2699,7 @@
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="25" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="1"/>
@@ -2702,7 +2712,7 @@
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="1"/>
@@ -2715,7 +2725,7 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B46" s="1"/>
@@ -2728,7 +2738,7 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="1"/>
@@ -2741,7 +2751,7 @@
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B48" s="1"/>
@@ -2754,7 +2764,7 @@
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="25" t="s">
         <v>55</v>
       </c>
       <c r="B49" s="1"/>
@@ -2767,7 +2777,7 @@
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="1"/>
@@ -2780,7 +2790,7 @@
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="1"/>
@@ -2793,7 +2803,7 @@
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="25" t="s">
         <v>58</v>
       </c>
       <c r="B52" s="1"/>
@@ -2806,7 +2816,7 @@
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B53" s="1"/>
@@ -2819,7 +2829,7 @@
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="1"/>
@@ -2832,7 +2842,7 @@
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="1"/>
@@ -2845,7 +2855,7 @@
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="24" t="s">
+      <c r="A56" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="2"/>
@@ -2858,7 +2868,7 @@
       <c r="I56" s="10"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="1"/>
@@ -2871,7 +2881,7 @@
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="1"/>
@@ -2884,7 +2894,7 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="24" t="s">
+      <c r="A59" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="1"/>
@@ -2897,7 +2907,7 @@
       <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="1"/>
@@ -2910,7 +2920,7 @@
       <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="1"/>
@@ -2923,7 +2933,7 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="25" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="1"/>
@@ -2936,7 +2946,7 @@
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B63" s="1"/>
@@ -2949,7 +2959,7 @@
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="25" t="s">
         <v>70</v>
       </c>
       <c r="B64" s="1"/>
@@ -2962,7 +2972,7 @@
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B65" s="1"/>
@@ -2975,7 +2985,7 @@
       <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="24" t="s">
+      <c r="A66" s="25" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="1"/>
@@ -2988,7 +2998,7 @@
       <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B67" s="1"/>
@@ -3001,7 +3011,7 @@
       <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="24" t="s">
+      <c r="A68" s="25" t="s">
         <v>74</v>
       </c>
       <c r="B68" s="1"/>
@@ -3014,7 +3024,7 @@
       <c r="I68" s="12"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69" s="24" t="s">
+      <c r="A69" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B69" s="1"/>
@@ -3027,7 +3037,7 @@
       <c r="I69" s="12"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="24" t="s">
+      <c r="A70" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="1"/>
@@ -3040,7 +3050,7 @@
       <c r="I70" s="12"/>
     </row>
     <row r="71" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B71" s="1"/>
@@ -3053,7 +3063,7 @@
       <c r="I71" s="12"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B72" s="2"/>
@@ -3066,7 +3076,7 @@
       <c r="I72" s="10"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73" s="24" t="s">
+      <c r="A73" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B73" s="1"/>
@@ -3079,7 +3089,7 @@
       <c r="I73" s="12"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74" s="24" t="s">
+      <c r="A74" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B74" s="1"/>
@@ -3092,7 +3102,7 @@
       <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="24" t="s">
+      <c r="A75" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B75" s="1"/>
@@ -3105,7 +3115,7 @@
       <c r="I75" s="12"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="24" t="s">
+      <c r="A76" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="1"/>
@@ -3118,7 +3128,7 @@
       <c r="I76" s="12"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77" s="24" t="s">
+      <c r="A77" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="1"/>
@@ -3131,7 +3141,7 @@
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="24" t="s">
+      <c r="A78" s="25" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="1"/>
@@ -3144,7 +3154,7 @@
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="24" t="s">
+      <c r="A79" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="1"/>
@@ -3157,7 +3167,7 @@
       <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="s">
+      <c r="A80" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="1"/>
@@ -3170,7 +3180,7 @@
       <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81" s="24" t="s">
+      <c r="A81" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="1"/>
@@ -3183,7 +3193,7 @@
       <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="24" t="s">
+      <c r="A82" s="25" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="1"/>
@@ -3196,7 +3206,7 @@
       <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83" s="24" t="s">
+      <c r="A83" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B83" s="1"/>
@@ -3209,7 +3219,7 @@
       <c r="I83" s="12"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="25" t="s">
         <v>90</v>
       </c>
       <c r="B84" s="1"/>
@@ -3222,7 +3232,7 @@
       <c r="I84" s="12"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85" s="24" t="s">
+      <c r="A85" s="25" t="s">
         <v>91</v>
       </c>
       <c r="B85" s="1"/>
@@ -3235,7 +3245,7 @@
       <c r="I85" s="12"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86" s="24" t="s">
+      <c r="A86" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B86" s="1"/>
@@ -3248,7 +3258,7 @@
       <c r="I86" s="12"/>
     </row>
     <row r="87" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="24" t="s">
+      <c r="A87" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B87" s="1"/>
@@ -3261,7 +3271,7 @@
       <c r="I87" s="12"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="24" t="s">
+      <c r="A88" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B88" s="2"/>
@@ -3274,7 +3284,7 @@
       <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" s="24" t="s">
+      <c r="A89" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B89" s="1"/>
@@ -3287,7 +3297,7 @@
       <c r="I89" s="12"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" s="24" t="s">
+      <c r="A90" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B90" s="1"/>
@@ -3300,7 +3310,7 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
+      <c r="A91" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="1"/>
@@ -3313,7 +3323,7 @@
       <c r="I91" s="12"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92" s="24" t="s">
+      <c r="A92" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="1"/>
@@ -3326,7 +3336,7 @@
       <c r="I92" s="12"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" s="24" t="s">
+      <c r="A93" s="25" t="s">
         <v>99</v>
       </c>
       <c r="B93" s="1"/>
@@ -3339,7 +3349,7 @@
       <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="25" t="s">
         <v>100</v>
       </c>
       <c r="B94" s="1"/>
@@ -3352,7 +3362,7 @@
       <c r="I94" s="12"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A95" s="24" t="s">
+      <c r="A95" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B95" s="1"/>
@@ -3365,7 +3375,7 @@
       <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A96" s="24" t="s">
+      <c r="A96" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="1"/>
@@ -3378,7 +3388,7 @@
       <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A97" s="24" t="s">
+      <c r="A97" s="25" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="1"/>
@@ -3391,7 +3401,7 @@
       <c r="I97" s="12"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A98" s="24" t="s">
+      <c r="A98" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B98" s="1"/>
@@ -3404,7 +3414,7 @@
       <c r="I98" s="12"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A99" s="24" t="s">
+      <c r="A99" s="25" t="s">
         <v>105</v>
       </c>
       <c r="B99" s="1"/>
@@ -3417,7 +3427,7 @@
       <c r="I99" s="12"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A100" s="24" t="s">
+      <c r="A100" s="25" t="s">
         <v>106</v>
       </c>
       <c r="B100" s="1"/>
@@ -3430,7 +3440,7 @@
       <c r="I100" s="12"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="24" t="s">
+      <c r="A101" s="25" t="s">
         <v>107</v>
       </c>
       <c r="B101" s="1"/>
@@ -3443,7 +3453,7 @@
       <c r="I101" s="12"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A102" s="24" t="s">
+      <c r="A102" s="25" t="s">
         <v>108</v>
       </c>
       <c r="B102" s="1"/>
@@ -3456,7 +3466,7 @@
       <c r="I102" s="12"/>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="24" t="s">
+      <c r="A103" s="25" t="s">
         <v>109</v>
       </c>
       <c r="B103" s="1"/>
@@ -3469,7 +3479,7 @@
       <c r="I103" s="12"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A104" s="24" t="s">
+      <c r="A104" s="25" t="s">
         <v>110</v>
       </c>
       <c r="B104" s="2"/>
@@ -3482,7 +3492,7 @@
       <c r="I104" s="10"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="24" t="s">
+      <c r="A105" s="25" t="s">
         <v>111</v>
       </c>
       <c r="B105" s="1"/>
@@ -3495,7 +3505,7 @@
       <c r="I105" s="12"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A106" s="24" t="s">
+      <c r="A106" s="25" t="s">
         <v>112</v>
       </c>
       <c r="B106" s="1"/>
@@ -3508,7 +3518,7 @@
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="24" t="s">
+      <c r="A107" s="25" t="s">
         <v>113</v>
       </c>
       <c r="B107" s="1"/>
@@ -3521,7 +3531,7 @@
       <c r="I107" s="12"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A108" s="24" t="s">
+      <c r="A108" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B108" s="1"/>
@@ -3534,7 +3544,7 @@
       <c r="I108" s="12"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="24" t="s">
+      <c r="A109" s="25" t="s">
         <v>115</v>
       </c>
       <c r="B109" s="1"/>
@@ -3547,7 +3557,7 @@
       <c r="I109" s="11"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="24" t="s">
+      <c r="A110" s="25" t="s">
         <v>116</v>
       </c>
       <c r="B110" s="1"/>
@@ -3560,7 +3570,7 @@
       <c r="I110" s="12"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A111" s="24" t="s">
+      <c r="A111" s="25" t="s">
         <v>117</v>
       </c>
       <c r="B111" s="1"/>
@@ -3573,7 +3583,7 @@
       <c r="I111" s="12"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="24" t="s">
+      <c r="A112" s="25" t="s">
         <v>118</v>
       </c>
       <c r="B112" s="1"/>
@@ -3586,7 +3596,7 @@
       <c r="I112" s="12"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
+      <c r="A113" s="25" t="s">
         <v>119</v>
       </c>
       <c r="B113" s="1"/>
@@ -3599,7 +3609,7 @@
       <c r="I113" s="12"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A114" s="24" t="s">
+      <c r="A114" s="25" t="s">
         <v>120</v>
       </c>
       <c r="B114" s="1"/>
@@ -3612,7 +3622,7 @@
       <c r="I114" s="12"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A115" s="24" t="s">
+      <c r="A115" s="25" t="s">
         <v>121</v>
       </c>
       <c r="B115" s="1"/>
@@ -3625,7 +3635,7 @@
       <c r="I115" s="12"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A116" s="24" t="s">
+      <c r="A116" s="25" t="s">
         <v>122</v>
       </c>
       <c r="B116" s="1"/>
@@ -3638,7 +3648,7 @@
       <c r="I116" s="12"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A117" s="24" t="s">
+      <c r="A117" s="25" t="s">
         <v>123</v>
       </c>
       <c r="B117" s="1"/>
@@ -3651,7 +3661,7 @@
       <c r="I117" s="12"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A118" s="24" t="s">
+      <c r="A118" s="25" t="s">
         <v>124</v>
       </c>
       <c r="B118" s="1"/>
@@ -3664,7 +3674,7 @@
       <c r="I118" s="12"/>
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="24" t="s">
+      <c r="A119" s="25" t="s">
         <v>125</v>
       </c>
       <c r="B119" s="1"/>
@@ -3677,7 +3687,7 @@
       <c r="I119" s="12"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="24" t="s">
+      <c r="A120" s="25" t="s">
         <v>126</v>
       </c>
       <c r="B120" s="2"/>
@@ -3690,7 +3700,7 @@
       <c r="I120" s="10"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="24" t="s">
+      <c r="A121" s="25" t="s">
         <v>127</v>
       </c>
       <c r="B121" s="1"/>
@@ -3703,7 +3713,7 @@
       <c r="I121" s="12"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A122" s="24" t="s">
+      <c r="A122" s="25" t="s">
         <v>128</v>
       </c>
       <c r="B122" s="1"/>
@@ -3716,7 +3726,7 @@
       <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
+      <c r="A123" s="25" t="s">
         <v>129</v>
       </c>
       <c r="B123" s="1"/>
@@ -3729,7 +3739,7 @@
       <c r="I123" s="12"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="24" t="s">
+      <c r="A124" s="25" t="s">
         <v>130</v>
       </c>
       <c r="B124" s="1"/>
@@ -3742,7 +3752,7 @@
       <c r="I124" s="12"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="24" t="s">
+      <c r="A125" s="25" t="s">
         <v>131</v>
       </c>
       <c r="B125" s="1"/>
@@ -3755,7 +3765,7 @@
       <c r="I125" s="11"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A126" s="24" t="s">
+      <c r="A126" s="25" t="s">
         <v>132</v>
       </c>
       <c r="B126" s="1"/>
@@ -3768,7 +3778,7 @@
       <c r="I126" s="12"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="24" t="s">
+      <c r="A127" s="25" t="s">
         <v>133</v>
       </c>
       <c r="B127" s="1"/>
@@ -3781,7 +3791,7 @@
       <c r="I127" s="12"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="24" t="s">
+      <c r="A128" s="25" t="s">
         <v>134</v>
       </c>
       <c r="B128" s="1"/>
@@ -3794,7 +3804,7 @@
       <c r="I128" s="12"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="24" t="s">
+      <c r="A129" s="25" t="s">
         <v>135</v>
       </c>
       <c r="B129" s="1"/>
@@ -3807,7 +3817,7 @@
       <c r="I129" s="12"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="24" t="s">
+      <c r="A130" s="25" t="s">
         <v>136</v>
       </c>
       <c r="B130" s="1"/>
@@ -3820,7 +3830,7 @@
       <c r="I130" s="12"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="24" t="s">
+      <c r="A131" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B131" s="1"/>
@@ -3833,7 +3843,7 @@
       <c r="I131" s="12"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A132" s="24" t="s">
+      <c r="A132" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B132" s="1"/>
@@ -3846,7 +3856,7 @@
       <c r="I132" s="12"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A133" s="24" t="s">
+      <c r="A133" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B133" s="1"/>
@@ -3859,7 +3869,7 @@
       <c r="I133" s="12"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A134" s="24" t="s">
+      <c r="A134" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B134" s="1"/>
@@ -3872,7 +3882,7 @@
       <c r="I134" s="12"/>
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="24" t="s">
+      <c r="A135" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B135" s="1"/>
@@ -3885,7 +3895,7 @@
       <c r="I135" s="12"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="24" t="s">
+      <c r="A136" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B136" s="2"/>
@@ -3898,7 +3908,7 @@
       <c r="I136" s="10"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="24" t="s">
+      <c r="A137" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B137" s="1"/>
@@ -3911,7 +3921,7 @@
       <c r="I137" s="12"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A138" s="24" t="s">
+      <c r="A138" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B138" s="1"/>
@@ -3924,7 +3934,7 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A139" s="24" t="s">
+      <c r="A139" s="25" t="s">
         <v>145</v>
       </c>
       <c r="B139" s="1"/>
@@ -3937,7 +3947,7 @@
       <c r="I139" s="12"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A140" s="24" t="s">
+      <c r="A140" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B140" s="1"/>
@@ -3950,7 +3960,7 @@
       <c r="I140" s="12"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A141" s="24" t="s">
+      <c r="A141" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B141" s="1"/>
@@ -3963,7 +3973,7 @@
       <c r="I141" s="11"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A142" s="24" t="s">
+      <c r="A142" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B142" s="1"/>
@@ -3976,7 +3986,7 @@
       <c r="I142" s="12"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A143" s="24" t="s">
+      <c r="A143" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B143" s="1"/>
@@ -3989,7 +3999,7 @@
       <c r="I143" s="12"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A144" s="24" t="s">
+      <c r="A144" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B144" s="1"/>
@@ -4002,7 +4012,7 @@
       <c r="I144" s="12"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A145" s="24" t="s">
+      <c r="A145" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B145" s="1"/>
@@ -4015,7 +4025,7 @@
       <c r="I145" s="12"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="24" t="s">
+      <c r="A146" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B146" s="1"/>
@@ -4028,7 +4038,7 @@
       <c r="I146" s="12"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A147" s="24" t="s">
+      <c r="A147" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B147" s="1"/>
@@ -4041,7 +4051,7 @@
       <c r="I147" s="12"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A148" s="24" t="s">
+      <c r="A148" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B148" s="1"/>
@@ -4054,7 +4064,7 @@
       <c r="I148" s="12"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A149" s="24" t="s">
+      <c r="A149" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B149" s="1"/>
@@ -4067,7 +4077,7 @@
       <c r="I149" s="12"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A150" s="24" t="s">
+      <c r="A150" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B150" s="1"/>
@@ -4080,7 +4090,7 @@
       <c r="I150" s="12"/>
     </row>
     <row r="151" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="24" t="s">
+      <c r="A151" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B151" s="1"/>
@@ -4093,7 +4103,7 @@
       <c r="I151" s="12"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A152" s="24" t="s">
+      <c r="A152" s="25" t="s">
         <v>158</v>
       </c>
       <c r="B152" s="2"/>
@@ -4106,7 +4116,7 @@
       <c r="I152" s="10"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A153" s="24" t="s">
+      <c r="A153" s="25" t="s">
         <v>159</v>
       </c>
       <c r="B153" s="1"/>
@@ -4119,7 +4129,7 @@
       <c r="I153" s="12"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A154" s="24" t="s">
+      <c r="A154" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B154" s="1"/>
@@ -4132,7 +4142,7 @@
       <c r="I154" s="11"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A155" s="24" t="s">
+      <c r="A155" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B155" s="1"/>
@@ -4145,7 +4155,7 @@
       <c r="I155" s="12"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B156" s="1"/>
@@ -4158,7 +4168,7 @@
       <c r="I156" s="12"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A157" s="24" t="s">
+      <c r="A157" s="25" t="s">
         <v>163</v>
       </c>
       <c r="B157" s="1"/>
@@ -4171,7 +4181,7 @@
       <c r="I157" s="11"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A158" s="24" t="s">
+      <c r="A158" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B158" s="1"/>
@@ -4184,7 +4194,7 @@
       <c r="I158" s="12"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A159" s="24" t="s">
+      <c r="A159" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B159" s="1"/>
@@ -4197,7 +4207,7 @@
       <c r="I159" s="12"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A160" s="24" t="s">
+      <c r="A160" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B160" s="1"/>
@@ -4210,7 +4220,7 @@
       <c r="I160" s="12"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A161" s="24" t="s">
+      <c r="A161" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B161" s="1"/>
@@ -4223,7 +4233,7 @@
       <c r="I161" s="12"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A162" s="24" t="s">
+      <c r="A162" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B162" s="1"/>
@@ -4236,7 +4246,7 @@
       <c r="I162" s="12"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A163" s="24" t="s">
+      <c r="A163" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B163" s="1"/>
@@ -4249,7 +4259,7 @@
       <c r="I163" s="12"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A164" s="24" t="s">
+      <c r="A164" s="25" t="s">
         <v>170</v>
       </c>
       <c r="B164" s="1"/>
@@ -4262,7 +4272,7 @@
       <c r="I164" s="12"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A165" s="24" t="s">
+      <c r="A165" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B165" s="1"/>
@@ -4275,7 +4285,7 @@
       <c r="I165" s="12"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A166" s="24" t="s">
+      <c r="A166" s="25" t="s">
         <v>172</v>
       </c>
       <c r="B166" s="1"/>
@@ -4288,7 +4298,7 @@
       <c r="I166" s="12"/>
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="24" t="s">
+      <c r="A167" s="25" t="s">
         <v>173</v>
       </c>
       <c r="B167" s="1"/>
@@ -4301,7 +4311,7 @@
       <c r="I167" s="12"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A168" s="24" t="s">
+      <c r="A168" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B168" s="2"/>
@@ -4314,7 +4324,7 @@
       <c r="I168" s="10"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A169" s="24" t="s">
+      <c r="A169" s="25" t="s">
         <v>175</v>
       </c>
       <c r="B169" s="1"/>
@@ -4327,7 +4337,7 @@
       <c r="I169" s="12"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A170" s="24" t="s">
+      <c r="A170" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B170" s="1"/>
@@ -4340,7 +4350,7 @@
       <c r="I170" s="11"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A171" s="24" t="s">
+      <c r="A171" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B171" s="1"/>
@@ -4353,7 +4363,7 @@
       <c r="I171" s="12"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A172" s="24" t="s">
+      <c r="A172" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B172" s="1"/>
@@ -4366,7 +4376,7 @@
       <c r="I172" s="12"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A173" s="24" t="s">
+      <c r="A173" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B173" s="1"/>
@@ -4379,7 +4389,7 @@
       <c r="I173" s="11"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A174" s="24" t="s">
+      <c r="A174" s="25" t="s">
         <v>180</v>
       </c>
       <c r="B174" s="1"/>
@@ -4392,7 +4402,7 @@
       <c r="I174" s="12"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A175" s="24" t="s">
+      <c r="A175" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B175" s="1"/>
@@ -4405,7 +4415,7 @@
       <c r="I175" s="12"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="24" t="s">
+      <c r="A176" s="25" t="s">
         <v>182</v>
       </c>
       <c r="B176" s="1"/>
@@ -4418,7 +4428,7 @@
       <c r="I176" s="12"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="24" t="s">
+      <c r="A177" s="25" t="s">
         <v>183</v>
       </c>
       <c r="B177" s="1"/>
@@ -4431,7 +4441,7 @@
       <c r="I177" s="12"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="24" t="s">
+      <c r="A178" s="25" t="s">
         <v>184</v>
       </c>
       <c r="B178" s="1"/>
@@ -4444,7 +4454,7 @@
       <c r="I178" s="12"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A179" s="24" t="s">
+      <c r="A179" s="25" t="s">
         <v>185</v>
       </c>
       <c r="B179" s="1"/>
@@ -4457,7 +4467,7 @@
       <c r="I179" s="12"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A180" s="24" t="s">
+      <c r="A180" s="25" t="s">
         <v>186</v>
       </c>
       <c r="B180" s="1"/>
@@ -4470,7 +4480,7 @@
       <c r="I180" s="12"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A181" s="24" t="s">
+      <c r="A181" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B181" s="1"/>
@@ -4483,7 +4493,7 @@
       <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A182" s="24" t="s">
+      <c r="A182" s="25" t="s">
         <v>188</v>
       </c>
       <c r="B182" s="1"/>
@@ -4496,7 +4506,7 @@
       <c r="I182" s="12"/>
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="24" t="s">
+      <c r="A183" s="25" t="s">
         <v>189</v>
       </c>
       <c r="B183" s="1"/>
@@ -4509,7 +4519,7 @@
       <c r="I183" s="12"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A184" s="24" t="s">
+      <c r="A184" s="25" t="s">
         <v>190</v>
       </c>
       <c r="B184" s="2"/>
@@ -4522,7 +4532,7 @@
       <c r="I184" s="10"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A185" s="24" t="s">
+      <c r="A185" s="25" t="s">
         <v>191</v>
       </c>
       <c r="B185" s="1"/>
@@ -4535,7 +4545,7 @@
       <c r="I185" s="12"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A186" s="24" t="s">
+      <c r="A186" s="25" t="s">
         <v>192</v>
       </c>
       <c r="B186" s="1"/>
@@ -4548,7 +4558,7 @@
       <c r="I186" s="11"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A187" s="24" t="s">
+      <c r="A187" s="25" t="s">
         <v>193</v>
       </c>
       <c r="B187" s="1"/>
@@ -4561,7 +4571,7 @@
       <c r="I187" s="12"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A188" s="24" t="s">
+      <c r="A188" s="25" t="s">
         <v>194</v>
       </c>
       <c r="B188" s="1"/>
@@ -4574,7 +4584,7 @@
       <c r="I188" s="12"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A189" s="24" t="s">
+      <c r="A189" s="25" t="s">
         <v>195</v>
       </c>
       <c r="B189" s="1"/>
@@ -4587,7 +4597,7 @@
       <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A190" s="24" t="s">
+      <c r="A190" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B190" s="1"/>
@@ -4600,7 +4610,7 @@
       <c r="I190" s="12"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A191" s="24" t="s">
+      <c r="A191" s="25" t="s">
         <v>197</v>
       </c>
       <c r="B191" s="1"/>
@@ -4613,7 +4623,7 @@
       <c r="I191" s="12"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A192" s="24" t="s">
+      <c r="A192" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B192" s="1"/>
@@ -4626,7 +4636,7 @@
       <c r="I192" s="12"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A193" s="24" t="s">
+      <c r="A193" s="25" t="s">
         <v>199</v>
       </c>
       <c r="B193" s="1"/>
@@ -4639,7 +4649,7 @@
       <c r="I193" s="12"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A194" s="24" t="s">
+      <c r="A194" s="25" t="s">
         <v>200</v>
       </c>
       <c r="B194" s="1"/>
@@ -4652,7 +4662,7 @@
       <c r="I194" s="12"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A195" s="24" t="s">
+      <c r="A195" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B195" s="1"/>
@@ -4665,7 +4675,7 @@
       <c r="I195" s="12"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A196" s="24" t="s">
+      <c r="A196" s="25" t="s">
         <v>202</v>
       </c>
       <c r="B196" s="1"/>
@@ -4678,7 +4688,7 @@
       <c r="I196" s="12"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A197" s="24" t="s">
+      <c r="A197" s="25" t="s">
         <v>203</v>
       </c>
       <c r="B197" s="1"/>
@@ -4691,7 +4701,7 @@
       <c r="I197" s="12"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A198" s="24" t="s">
+      <c r="A198" s="25" t="s">
         <v>204</v>
       </c>
       <c r="B198" s="1"/>
@@ -4704,7 +4714,7 @@
       <c r="I198" s="12"/>
     </row>
     <row r="199" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="24" t="s">
+      <c r="A199" s="25" t="s">
         <v>205</v>
       </c>
       <c r="B199" s="1"/>
@@ -4717,7 +4727,7 @@
       <c r="I199" s="12"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A200" s="24" t="s">
+      <c r="A200" s="25" t="s">
         <v>206</v>
       </c>
       <c r="B200" s="2"/>
@@ -4730,7 +4740,7 @@
       <c r="I200" s="10"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A201" s="24" t="s">
+      <c r="A201" s="25" t="s">
         <v>207</v>
       </c>
       <c r="B201" s="1"/>
@@ -4743,7 +4753,7 @@
       <c r="I201" s="12"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A202" s="24" t="s">
+      <c r="A202" s="25" t="s">
         <v>208</v>
       </c>
       <c r="B202" s="1"/>
@@ -4756,7 +4766,7 @@
       <c r="I202" s="11"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A203" s="24" t="s">
+      <c r="A203" s="25" t="s">
         <v>209</v>
       </c>
       <c r="B203" s="1"/>
@@ -4769,7 +4779,7 @@
       <c r="I203" s="12"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A204" s="24" t="s">
+      <c r="A204" s="25" t="s">
         <v>210</v>
       </c>
       <c r="B204" s="1"/>
@@ -4782,7 +4792,7 @@
       <c r="I204" s="12"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A205" s="24" t="s">
+      <c r="A205" s="25" t="s">
         <v>211</v>
       </c>
       <c r="B205" s="1"/>
@@ -4795,7 +4805,7 @@
       <c r="I205" s="11"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A206" s="24" t="s">
+      <c r="A206" s="25" t="s">
         <v>212</v>
       </c>
       <c r="B206" s="1"/>
@@ -4808,7 +4818,7 @@
       <c r="I206" s="12"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A207" s="24" t="s">
+      <c r="A207" s="25" t="s">
         <v>213</v>
       </c>
       <c r="B207" s="1"/>
@@ -4821,7 +4831,7 @@
       <c r="I207" s="12"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A208" s="24" t="s">
+      <c r="A208" s="25" t="s">
         <v>214</v>
       </c>
       <c r="B208" s="1"/>
@@ -4834,7 +4844,7 @@
       <c r="I208" s="12"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A209" s="24" t="s">
+      <c r="A209" s="25" t="s">
         <v>215</v>
       </c>
       <c r="B209" s="1"/>
@@ -4847,7 +4857,7 @@
       <c r="I209" s="12"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A210" s="24" t="s">
+      <c r="A210" s="25" t="s">
         <v>216</v>
       </c>
       <c r="B210" s="1"/>
@@ -4860,7 +4870,7 @@
       <c r="I210" s="12"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A211" s="24" t="s">
+      <c r="A211" s="25" t="s">
         <v>217</v>
       </c>
       <c r="B211" s="1"/>
@@ -4873,7 +4883,7 @@
       <c r="I211" s="12"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A212" s="24" t="s">
+      <c r="A212" s="25" t="s">
         <v>218</v>
       </c>
       <c r="B212" s="1"/>
@@ -4886,7 +4896,7 @@
       <c r="I212" s="12"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A213" s="24" t="s">
+      <c r="A213" s="25" t="s">
         <v>219</v>
       </c>
       <c r="B213" s="1"/>
@@ -4899,7 +4909,7 @@
       <c r="I213" s="12"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A214" s="24" t="s">
+      <c r="A214" s="25" t="s">
         <v>220</v>
       </c>
       <c r="B214" s="1"/>
@@ -4912,7 +4922,7 @@
       <c r="I214" s="12"/>
     </row>
     <row r="215" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="24" t="s">
+      <c r="A215" s="25" t="s">
         <v>221</v>
       </c>
       <c r="B215" s="1"/>
@@ -4925,7 +4935,7 @@
       <c r="I215" s="12"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A216" s="24" t="s">
+      <c r="A216" s="25" t="s">
         <v>222</v>
       </c>
       <c r="B216" s="2"/>
@@ -4938,7 +4948,7 @@
       <c r="I216" s="10"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A217" s="24" t="s">
+      <c r="A217" s="25" t="s">
         <v>223</v>
       </c>
       <c r="B217" s="1"/>
@@ -4951,7 +4961,7 @@
       <c r="I217" s="12"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A218" s="24" t="s">
+      <c r="A218" s="25" t="s">
         <v>224</v>
       </c>
       <c r="B218" s="1"/>
@@ -4964,7 +4974,7 @@
       <c r="I218" s="11"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A219" s="24" t="s">
+      <c r="A219" s="25" t="s">
         <v>225</v>
       </c>
       <c r="B219" s="1"/>
@@ -4977,7 +4987,7 @@
       <c r="I219" s="12"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A220" s="24" t="s">
+      <c r="A220" s="25" t="s">
         <v>226</v>
       </c>
       <c r="B220" s="1"/>
@@ -4990,7 +5000,7 @@
       <c r="I220" s="12"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A221" s="24" t="s">
+      <c r="A221" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B221" s="1"/>
@@ -5003,7 +5013,7 @@
       <c r="I221" s="11"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222" s="24" t="s">
+      <c r="A222" s="25" t="s">
         <v>227</v>
       </c>
       <c r="B222" s="1"/>
@@ -5016,7 +5026,7 @@
       <c r="I222" s="12"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223" s="24" t="s">
+      <c r="A223" s="25" t="s">
         <v>228</v>
       </c>
       <c r="B223" s="1"/>
@@ -5029,7 +5039,7 @@
       <c r="I223" s="12"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224" s="24" t="s">
+      <c r="A224" s="25" t="s">
         <v>229</v>
       </c>
       <c r="B224" s="1"/>
@@ -5042,7 +5052,7 @@
       <c r="I224" s="12"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A225" s="24" t="s">
+      <c r="A225" s="25" t="s">
         <v>230</v>
       </c>
       <c r="B225" s="1"/>
@@ -5055,7 +5065,7 @@
       <c r="I225" s="12"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A226" s="24" t="s">
+      <c r="A226" s="25" t="s">
         <v>231</v>
       </c>
       <c r="B226" s="1"/>
@@ -5068,7 +5078,7 @@
       <c r="I226" s="12"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A227" s="24" t="s">
+      <c r="A227" s="25" t="s">
         <v>232</v>
       </c>
       <c r="B227" s="1"/>
@@ -5081,7 +5091,7 @@
       <c r="I227" s="12"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A228" s="24" t="s">
+      <c r="A228" s="25" t="s">
         <v>233</v>
       </c>
       <c r="B228" s="1"/>
@@ -5094,7 +5104,7 @@
       <c r="I228" s="12"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A229" s="24" t="s">
+      <c r="A229" s="25" t="s">
         <v>234</v>
       </c>
       <c r="B229" s="1"/>
@@ -5107,7 +5117,7 @@
       <c r="I229" s="12"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A230" s="24" t="s">
+      <c r="A230" s="25" t="s">
         <v>235</v>
       </c>
       <c r="B230" s="1"/>
@@ -5120,7 +5130,7 @@
       <c r="I230" s="12"/>
     </row>
     <row r="231" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="24" t="s">
+      <c r="A231" s="25" t="s">
         <v>236</v>
       </c>
       <c r="B231" s="1"/>
@@ -5133,7 +5143,7 @@
       <c r="I231" s="12"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A232" s="24" t="s">
+      <c r="A232" s="25" t="s">
         <v>237</v>
       </c>
       <c r="B232" s="2"/>
@@ -5146,7 +5156,7 @@
       <c r="I232" s="10"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A233" s="24" t="s">
+      <c r="A233" s="25" t="s">
         <v>238</v>
       </c>
       <c r="B233" s="1"/>
@@ -5159,7 +5169,7 @@
       <c r="I233" s="12"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A234" s="24" t="s">
+      <c r="A234" s="25" t="s">
         <v>239</v>
       </c>
       <c r="B234" s="1"/>
@@ -5172,7 +5182,7 @@
       <c r="I234" s="11"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A235" s="24" t="s">
+      <c r="A235" s="25" t="s">
         <v>240</v>
       </c>
       <c r="B235" s="1"/>
@@ -5185,7 +5195,7 @@
       <c r="I235" s="12"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A236" s="24" t="s">
+      <c r="A236" s="25" t="s">
         <v>241</v>
       </c>
       <c r="B236" s="1"/>
@@ -5198,7 +5208,7 @@
       <c r="I236" s="12"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A237" s="24" t="s">
+      <c r="A237" s="25" t="s">
         <v>242</v>
       </c>
       <c r="B237" s="1"/>
@@ -5211,7 +5221,7 @@
       <c r="I237" s="11"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A238" s="24" t="s">
+      <c r="A238" s="25" t="s">
         <v>243</v>
       </c>
       <c r="B238" s="1"/>
@@ -5224,7 +5234,7 @@
       <c r="I238" s="12"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A239" s="24" t="s">
+      <c r="A239" s="25" t="s">
         <v>244</v>
       </c>
       <c r="B239" s="1"/>
@@ -5237,7 +5247,7 @@
       <c r="I239" s="12"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A240" s="24" t="s">
+      <c r="A240" s="25" t="s">
         <v>245</v>
       </c>
       <c r="B240" s="1"/>
@@ -5250,7 +5260,7 @@
       <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A241" s="24" t="s">
+      <c r="A241" s="25" t="s">
         <v>246</v>
       </c>
       <c r="B241" s="1"/>
@@ -5263,7 +5273,7 @@
       <c r="I241" s="12"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A242" s="24" t="s">
+      <c r="A242" s="25" t="s">
         <v>247</v>
       </c>
       <c r="B242" s="1"/>
@@ -5276,7 +5286,7 @@
       <c r="I242" s="12"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A243" s="24" t="s">
+      <c r="A243" s="25" t="s">
         <v>248</v>
       </c>
       <c r="B243" s="1"/>
@@ -5289,7 +5299,7 @@
       <c r="I243" s="12"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A244" s="24" t="s">
+      <c r="A244" s="25" t="s">
         <v>249</v>
       </c>
       <c r="B244" s="1"/>
@@ -5302,7 +5312,7 @@
       <c r="I244" s="12"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A245" s="24" t="s">
+      <c r="A245" s="25" t="s">
         <v>250</v>
       </c>
       <c r="B245" s="1"/>
@@ -5315,7 +5325,7 @@
       <c r="I245" s="12"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A246" s="24" t="s">
+      <c r="A246" s="25" t="s">
         <v>251</v>
       </c>
       <c r="B246" s="1"/>
@@ -5328,7 +5338,7 @@
       <c r="I246" s="12"/>
     </row>
     <row r="247" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="24" t="s">
+      <c r="A247" s="25" t="s">
         <v>252</v>
       </c>
       <c r="B247" s="1"/>
@@ -5341,7 +5351,7 @@
       <c r="I247" s="12"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A248" s="24" t="s">
+      <c r="A248" s="25" t="s">
         <v>253</v>
       </c>
       <c r="B248" s="2"/>
@@ -5354,7 +5364,7 @@
       <c r="I248" s="10"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A249" s="24" t="s">
+      <c r="A249" s="25" t="s">
         <v>254</v>
       </c>
       <c r="B249" s="1"/>
@@ -5367,7 +5377,7 @@
       <c r="I249" s="12"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A250" s="24" t="s">
+      <c r="A250" s="25" t="s">
         <v>255</v>
       </c>
       <c r="B250" s="1"/>
@@ -5380,7 +5390,7 @@
       <c r="I250" s="11"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A251" s="24" t="s">
+      <c r="A251" s="25" t="s">
         <v>256</v>
       </c>
       <c r="B251" s="1"/>
@@ -5393,7 +5403,7 @@
       <c r="I251" s="12"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A252" s="24" t="s">
+      <c r="A252" s="25" t="s">
         <v>257</v>
       </c>
       <c r="B252" s="1"/>
@@ -5406,7 +5416,7 @@
       <c r="I252" s="12"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A253" s="24" t="s">
+      <c r="A253" s="25" t="s">
         <v>258</v>
       </c>
       <c r="B253" s="1"/>
@@ -5419,7 +5429,7 @@
       <c r="I253" s="11"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A254" s="24" t="s">
+      <c r="A254" s="25" t="s">
         <v>259</v>
       </c>
       <c r="B254" s="1"/>
@@ -5432,7 +5442,7 @@
       <c r="I254" s="12"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A255" s="24" t="s">
+      <c r="A255" s="25" t="s">
         <v>260</v>
       </c>
       <c r="B255" s="1"/>
@@ -5445,7 +5455,7 @@
       <c r="I255" s="12"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A256" s="24" t="s">
+      <c r="A256" s="25" t="s">
         <v>261</v>
       </c>
       <c r="B256" s="1"/>
@@ -5458,7 +5468,7 @@
       <c r="I256" s="12"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A257" s="24" t="s">
+      <c r="A257" s="25" t="s">
         <v>262</v>
       </c>
       <c r="B257" s="1"/>
@@ -5471,7 +5481,7 @@
       <c r="I257" s="12"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A258" s="24" t="s">
+      <c r="A258" s="25" t="s">
         <v>263</v>
       </c>
       <c r="B258" s="1"/>
@@ -5484,7 +5494,7 @@
       <c r="I258" s="12"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A259" s="24" t="s">
+      <c r="A259" s="25" t="s">
         <v>264</v>
       </c>
       <c r="B259" s="1"/>
@@ -5497,7 +5507,7 @@
       <c r="I259" s="12"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A260" s="24" t="s">
+      <c r="A260" s="25" t="s">
         <v>265</v>
       </c>
       <c r="B260" s="1"/>
@@ -5510,7 +5520,7 @@
       <c r="I260" s="12"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A261" s="24" t="s">
+      <c r="A261" s="25" t="s">
         <v>266</v>
       </c>
       <c r="B261" s="1"/>
@@ -5523,7 +5533,7 @@
       <c r="I261" s="12"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A262" s="24" t="s">
+      <c r="A262" s="25" t="s">
         <v>267</v>
       </c>
       <c r="B262" s="1"/>
@@ -5536,7 +5546,7 @@
       <c r="I262" s="12"/>
     </row>
     <row r="263" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="24" t="s">
+      <c r="A263" s="25" t="s">
         <v>268</v>
       </c>
       <c r="B263" s="1"/>
@@ -5549,7 +5559,7 @@
       <c r="I263" s="12"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A264" s="24" t="s">
+      <c r="A264" s="25" t="s">
         <v>269</v>
       </c>
       <c r="B264" s="2"/>
@@ -5562,7 +5572,7 @@
       <c r="I264" s="10"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A265" s="24" t="s">
+      <c r="A265" s="25" t="s">
         <v>270</v>
       </c>
       <c r="B265" s="1"/>
@@ -5575,7 +5585,7 @@
       <c r="I265" s="12"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A266" s="24" t="s">
+      <c r="A266" s="25" t="s">
         <v>271</v>
       </c>
       <c r="B266" s="1"/>
@@ -5588,7 +5598,7 @@
       <c r="I266" s="11"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A267" s="24" t="s">
+      <c r="A267" s="25" t="s">
         <v>272</v>
       </c>
       <c r="B267" s="1"/>
@@ -5601,7 +5611,7 @@
       <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A268" s="24" t="s">
+      <c r="A268" s="25" t="s">
         <v>273</v>
       </c>
       <c r="B268" s="1"/>
@@ -5614,7 +5624,7 @@
       <c r="I268" s="12"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A269" s="24" t="s">
+      <c r="A269" s="25" t="s">
         <v>274</v>
       </c>
       <c r="B269" s="1"/>
@@ -5627,7 +5637,7 @@
       <c r="I269" s="11"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A270" s="24" t="s">
+      <c r="A270" s="25" t="s">
         <v>275</v>
       </c>
       <c r="B270" s="1"/>
@@ -5640,7 +5650,7 @@
       <c r="I270" s="12"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A271" s="24" t="s">
+      <c r="A271" s="25" t="s">
         <v>276</v>
       </c>
       <c r="B271" s="1"/>
@@ -5653,7 +5663,7 @@
       <c r="I271" s="12"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A272" s="24" t="s">
+      <c r="A272" s="25" t="s">
         <v>277</v>
       </c>
       <c r="B272" s="1"/>
@@ -5666,7 +5676,7 @@
       <c r="I272" s="12"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A273" s="24" t="s">
+      <c r="A273" s="25" t="s">
         <v>278</v>
       </c>
       <c r="B273" s="1"/>
@@ -5679,7 +5689,7 @@
       <c r="I273" s="12"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A274" s="24" t="s">
+      <c r="A274" s="25" t="s">
         <v>279</v>
       </c>
       <c r="B274" s="1"/>
@@ -5692,7 +5702,7 @@
       <c r="I274" s="12"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A275" s="24" t="s">
+      <c r="A275" s="25" t="s">
         <v>280</v>
       </c>
       <c r="B275" s="1"/>
@@ -5705,7 +5715,7 @@
       <c r="I275" s="12"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A276" s="24" t="s">
+      <c r="A276" s="25" t="s">
         <v>281</v>
       </c>
       <c r="B276" s="1"/>
@@ -5718,7 +5728,7 @@
       <c r="I276" s="12"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A277" s="24" t="s">
+      <c r="A277" s="25" t="s">
         <v>282</v>
       </c>
       <c r="B277" s="1"/>
@@ -5731,7 +5741,7 @@
       <c r="I277" s="12"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A278" s="24" t="s">
+      <c r="A278" s="25" t="s">
         <v>283</v>
       </c>
       <c r="B278" s="1"/>
@@ -5744,7 +5754,7 @@
       <c r="I278" s="12"/>
     </row>
     <row r="279" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="24" t="s">
+      <c r="A279" s="25" t="s">
         <v>284</v>
       </c>
       <c r="B279" s="1"/>
@@ -5757,7 +5767,7 @@
       <c r="I279" s="12"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A280" s="24" t="s">
+      <c r="A280" s="25" t="s">
         <v>285</v>
       </c>
       <c r="B280" s="2"/>
@@ -5770,7 +5780,7 @@
       <c r="I280" s="10"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A281" s="24" t="s">
+      <c r="A281" s="25" t="s">
         <v>286</v>
       </c>
       <c r="B281" s="1"/>
@@ -5783,7 +5793,7 @@
       <c r="I281" s="12"/>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A282" s="24" t="s">
+      <c r="A282" s="25" t="s">
         <v>287</v>
       </c>
       <c r="B282" s="1"/>
@@ -5796,7 +5806,7 @@
       <c r="I282" s="11"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A283" s="24" t="s">
+      <c r="A283" s="25" t="s">
         <v>288</v>
       </c>
       <c r="B283" s="1"/>
@@ -5809,7 +5819,7 @@
       <c r="I283" s="12"/>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A284" s="24" t="s">
+      <c r="A284" s="25" t="s">
         <v>289</v>
       </c>
       <c r="B284" s="1"/>
@@ -5822,7 +5832,7 @@
       <c r="I284" s="12"/>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A285" s="24" t="s">
+      <c r="A285" s="25" t="s">
         <v>290</v>
       </c>
       <c r="B285" s="1"/>
@@ -5835,7 +5845,7 @@
       <c r="I285" s="11"/>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A286" s="24" t="s">
+      <c r="A286" s="25" t="s">
         <v>291</v>
       </c>
       <c r="B286" s="1"/>
@@ -5848,7 +5858,7 @@
       <c r="I286" s="12"/>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A287" s="24" t="s">
+      <c r="A287" s="25" t="s">
         <v>292</v>
       </c>
       <c r="B287" s="1"/>
@@ -5861,7 +5871,7 @@
       <c r="I287" s="12"/>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A288" s="24" t="s">
+      <c r="A288" s="25" t="s">
         <v>293</v>
       </c>
       <c r="B288" s="1"/>
@@ -5874,7 +5884,7 @@
       <c r="I288" s="12"/>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A289" s="24" t="s">
+      <c r="A289" s="25" t="s">
         <v>294</v>
       </c>
       <c r="B289" s="1"/>
@@ -5887,7 +5897,7 @@
       <c r="I289" s="12"/>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A290" s="24" t="s">
+      <c r="A290" s="25" t="s">
         <v>295</v>
       </c>
       <c r="B290" s="1"/>
@@ -5900,7 +5910,7 @@
       <c r="I290" s="12"/>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A291" s="24" t="s">
+      <c r="A291" s="25" t="s">
         <v>296</v>
       </c>
       <c r="B291" s="1"/>
@@ -5913,7 +5923,7 @@
       <c r="I291" s="12"/>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A292" s="24" t="s">
+      <c r="A292" s="25" t="s">
         <v>297</v>
       </c>
       <c r="B292" s="1"/>
@@ -5926,7 +5936,7 @@
       <c r="I292" s="12"/>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A293" s="24" t="s">
+      <c r="A293" s="25" t="s">
         <v>298</v>
       </c>
       <c r="B293" s="1"/>
@@ -5939,7 +5949,7 @@
       <c r="I293" s="12"/>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A294" s="24" t="s">
+      <c r="A294" s="25" t="s">
         <v>299</v>
       </c>
       <c r="B294" s="1"/>
@@ -5952,7 +5962,7 @@
       <c r="I294" s="12"/>
     </row>
     <row r="295" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A295" s="24" t="s">
+      <c r="A295" s="25" t="s">
         <v>300</v>
       </c>
       <c r="B295" s="1"/>
@@ -5965,7 +5975,7 @@
       <c r="I295" s="12"/>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A296" s="24" t="s">
+      <c r="A296" s="25" t="s">
         <v>301</v>
       </c>
       <c r="B296" s="2"/>
@@ -5978,7 +5988,7 @@
       <c r="I296" s="10"/>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A297" s="24" t="s">
+      <c r="A297" s="25" t="s">
         <v>302</v>
       </c>
       <c r="B297" s="1"/>
@@ -5991,7 +6001,7 @@
       <c r="I297" s="12"/>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A298" s="24" t="s">
+      <c r="A298" s="25" t="s">
         <v>303</v>
       </c>
       <c r="B298" s="1"/>
@@ -6004,7 +6014,7 @@
       <c r="I298" s="11"/>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A299" s="24" t="s">
+      <c r="A299" s="25" t="s">
         <v>304</v>
       </c>
       <c r="B299" s="1"/>
@@ -6017,7 +6027,7 @@
       <c r="I299" s="12"/>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A300" s="24" t="s">
+      <c r="A300" s="25" t="s">
         <v>305</v>
       </c>
       <c r="B300" s="1"/>
@@ -6030,7 +6040,7 @@
       <c r="I300" s="12"/>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A301" s="24" t="s">
+      <c r="A301" s="25" t="s">
         <v>306</v>
       </c>
       <c r="B301" s="1"/>
@@ -6043,7 +6053,7 @@
       <c r="I301" s="11"/>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A302" s="24" t="s">
+      <c r="A302" s="25" t="s">
         <v>307</v>
       </c>
       <c r="B302" s="1"/>
@@ -6056,7 +6066,7 @@
       <c r="I302" s="12"/>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A303" s="24" t="s">
+      <c r="A303" s="25" t="s">
         <v>308</v>
       </c>
       <c r="B303" s="1"/>
@@ -6069,7 +6079,7 @@
       <c r="I303" s="12"/>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A304" s="24" t="s">
+      <c r="A304" s="25" t="s">
         <v>309</v>
       </c>
       <c r="B304" s="1"/>
@@ -6082,7 +6092,7 @@
       <c r="I304" s="12"/>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A305" s="24" t="s">
+      <c r="A305" s="25" t="s">
         <v>310</v>
       </c>
       <c r="B305" s="1"/>
@@ -6095,7 +6105,7 @@
       <c r="I305" s="12"/>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A306" s="24" t="s">
+      <c r="A306" s="25" t="s">
         <v>311</v>
       </c>
       <c r="B306" s="1"/>
@@ -6108,7 +6118,7 @@
       <c r="I306" s="12"/>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A307" s="24" t="s">
+      <c r="A307" s="25" t="s">
         <v>312</v>
       </c>
       <c r="B307" s="1"/>
@@ -6121,7 +6131,7 @@
       <c r="I307" s="12"/>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A308" s="24" t="s">
+      <c r="A308" s="25" t="s">
         <v>313</v>
       </c>
       <c r="B308" s="1"/>
@@ -6134,7 +6144,7 @@
       <c r="I308" s="12"/>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A309" s="24" t="s">
+      <c r="A309" s="25" t="s">
         <v>314</v>
       </c>
       <c r="B309" s="1"/>
@@ -6147,7 +6157,7 @@
       <c r="I309" s="12"/>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A310" s="24" t="s">
+      <c r="A310" s="25" t="s">
         <v>315</v>
       </c>
       <c r="B310" s="1"/>
@@ -6160,7 +6170,7 @@
       <c r="I310" s="12"/>
     </row>
     <row r="311" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A311" s="24" t="s">
+      <c r="A311" s="25" t="s">
         <v>316</v>
       </c>
       <c r="B311" s="1"/>
@@ -6173,7 +6183,7 @@
       <c r="I311" s="12"/>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A312" s="24" t="s">
+      <c r="A312" s="25" t="s">
         <v>317</v>
       </c>
       <c r="B312" s="2"/>
@@ -6186,7 +6196,7 @@
       <c r="I312" s="10"/>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A313" s="24" t="s">
+      <c r="A313" s="25" t="s">
         <v>318</v>
       </c>
       <c r="B313" s="1"/>
@@ -6199,7 +6209,7 @@
       <c r="I313" s="12"/>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A314" s="24" t="s">
+      <c r="A314" s="25" t="s">
         <v>319</v>
       </c>
       <c r="B314" s="1"/>
@@ -6212,7 +6222,7 @@
       <c r="I314" s="11"/>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A315" s="24" t="s">
+      <c r="A315" s="25" t="s">
         <v>320</v>
       </c>
       <c r="B315" s="1"/>
@@ -6225,7 +6235,7 @@
       <c r="I315" s="12"/>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A316" s="24" t="s">
+      <c r="A316" s="25" t="s">
         <v>317</v>
       </c>
       <c r="B316" s="1"/>
@@ -6238,7 +6248,7 @@
       <c r="I316" s="12"/>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A317" s="24" t="s">
+      <c r="A317" s="25" t="s">
         <v>318</v>
       </c>
       <c r="B317" s="1"/>
@@ -6251,7 +6261,7 @@
       <c r="I317" s="11"/>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A318" s="24" t="s">
+      <c r="A318" s="25" t="s">
         <v>319</v>
       </c>
       <c r="B318" s="1"/>
@@ -6264,7 +6274,7 @@
       <c r="I318" s="12"/>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A319" s="24" t="s">
+      <c r="A319" s="25" t="s">
         <v>320</v>
       </c>
       <c r="B319" s="1"/>
@@ -6277,7 +6287,7 @@
       <c r="I319" s="12"/>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A320" s="24" t="s">
+      <c r="A320" s="25" t="s">
         <v>321</v>
       </c>
       <c r="B320" s="1"/>
@@ -6290,7 +6300,7 @@
       <c r="I320" s="12"/>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A321" s="24" t="s">
+      <c r="A321" s="25" t="s">
         <v>322</v>
       </c>
       <c r="B321" s="1"/>
@@ -6303,7 +6313,7 @@
       <c r="I321" s="12"/>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A322" s="24" t="s">
+      <c r="A322" s="25" t="s">
         <v>323</v>
       </c>
       <c r="B322" s="1"/>
@@ -6316,7 +6326,7 @@
       <c r="I322" s="12"/>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A323" s="24" t="s">
+      <c r="A323" s="25" t="s">
         <v>321</v>
       </c>
       <c r="B323" s="1"/>
@@ -6329,7 +6339,7 @@
       <c r="I323" s="12"/>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A324" s="24" t="s">
+      <c r="A324" s="25" t="s">
         <v>322</v>
       </c>
       <c r="B324" s="1"/>
@@ -6342,7 +6352,7 @@
       <c r="I324" s="12"/>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A325" s="24" t="s">
+      <c r="A325" s="25" t="s">
         <v>323</v>
       </c>
       <c r="B325" s="1"/>
@@ -6355,7 +6365,7 @@
       <c r="I325" s="12"/>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A326" s="24" t="s">
+      <c r="A326" s="25" t="s">
         <v>324</v>
       </c>
       <c r="B326" s="1"/>
@@ -6368,7 +6378,7 @@
       <c r="I326" s="12"/>
     </row>
     <row r="327" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="24" t="s">
+      <c r="A327" s="25" t="s">
         <v>325</v>
       </c>
       <c r="B327" s="1"/>
@@ -6381,7 +6391,7 @@
       <c r="I327" s="12"/>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A328" s="24" t="s">
+      <c r="A328" s="25" t="s">
         <v>326</v>
       </c>
       <c r="B328" s="2"/>
@@ -6394,7 +6404,7 @@
       <c r="I328" s="10"/>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A329" s="24" t="s">
+      <c r="A329" s="25" t="s">
         <v>327</v>
       </c>
       <c r="B329" s="1"/>
@@ -6407,7 +6417,7 @@
       <c r="I329" s="12"/>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A330" s="24" t="s">
+      <c r="A330" s="25" t="s">
         <v>328</v>
       </c>
       <c r="B330" s="1"/>
@@ -6420,7 +6430,7 @@
       <c r="I330" s="11"/>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A331" s="24" t="s">
+      <c r="A331" s="25" t="s">
         <v>329</v>
       </c>
       <c r="B331" s="1"/>
@@ -6433,7 +6443,7 @@
       <c r="I331" s="12"/>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A332" s="24" t="s">
+      <c r="A332" s="25" t="s">
         <v>324</v>
       </c>
       <c r="B332" s="1"/>
@@ -6446,7 +6456,7 @@
       <c r="I332" s="12"/>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A333" s="24" t="s">
+      <c r="A333" s="25" t="s">
         <v>325</v>
       </c>
       <c r="B333" s="1"/>
@@ -6459,7 +6469,7 @@
       <c r="I333" s="11"/>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A334" s="24" t="s">
+      <c r="A334" s="25" t="s">
         <v>326</v>
       </c>
       <c r="B334" s="1"/>
@@ -6472,7 +6482,7 @@
       <c r="I334" s="12"/>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A335" s="24" t="s">
+      <c r="A335" s="25" t="s">
         <v>327</v>
       </c>
       <c r="B335" s="1"/>
@@ -6485,7 +6495,7 @@
       <c r="I335" s="12"/>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A336" s="24" t="s">
+      <c r="A336" s="25" t="s">
         <v>328</v>
       </c>
       <c r="B336" s="1"/>
@@ -6498,7 +6508,7 @@
       <c r="I336" s="12"/>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A337" s="24" t="s">
+      <c r="A337" s="25" t="s">
         <v>329</v>
       </c>
       <c r="B337" s="1"/>
@@ -6511,7 +6521,7 @@
       <c r="I337" s="12"/>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A338" s="24" t="s">
+      <c r="A338" s="25" t="s">
         <v>330</v>
       </c>
       <c r="B338" s="1"/>
@@ -6524,7 +6534,7 @@
       <c r="I338" s="12"/>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A339" s="24" t="s">
+      <c r="A339" s="25" t="s">
         <v>330</v>
       </c>
       <c r="B339" s="1"/>
@@ -6537,7 +6547,7 @@
       <c r="I339" s="12"/>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A340" s="24" t="s">
+      <c r="A340" s="25" t="s">
         <v>331</v>
       </c>
       <c r="B340" s="1"/>
@@ -6550,7 +6560,7 @@
       <c r="I340" s="12"/>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A341" s="24" t="s">
+      <c r="A341" s="25" t="s">
         <v>332</v>
       </c>
       <c r="B341" s="1"/>
@@ -6563,7 +6573,7 @@
       <c r="I341" s="12"/>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A342" s="24" t="s">
+      <c r="A342" s="25" t="s">
         <v>331</v>
       </c>
       <c r="B342" s="1"/>
@@ -6576,7 +6586,7 @@
       <c r="I342" s="12"/>
     </row>
     <row r="343" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="24" t="s">
+      <c r="A343" s="25" t="s">
         <v>332</v>
       </c>
       <c r="B343" s="1"/>
@@ -6589,7 +6599,7 @@
       <c r="I343" s="12"/>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A344" s="24" t="s">
+      <c r="A344" s="25" t="s">
         <v>333</v>
       </c>
       <c r="B344" s="2"/>
@@ -6602,7 +6612,7 @@
       <c r="I344" s="10"/>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A345" s="24" t="s">
+      <c r="A345" s="25" t="s">
         <v>334</v>
       </c>
       <c r="B345" s="1"/>
@@ -6615,7 +6625,7 @@
       <c r="I345" s="12"/>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A346" s="24" t="s">
+      <c r="A346" s="25" t="s">
         <v>335</v>
       </c>
       <c r="B346" s="1"/>
@@ -6628,7 +6638,7 @@
       <c r="I346" s="11"/>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A347" s="24" t="s">
+      <c r="A347" s="25" t="s">
         <v>336</v>
       </c>
       <c r="B347" s="1"/>
@@ -6641,7 +6651,7 @@
       <c r="I347" s="12"/>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A348" s="24" t="s">
+      <c r="A348" s="25" t="s">
         <v>336</v>
       </c>
       <c r="B348" s="1"/>
@@ -6654,7 +6664,7 @@
       <c r="I348" s="12"/>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A349" s="24" t="s">
+      <c r="A349" s="25" t="s">
         <v>337</v>
       </c>
       <c r="B349" s="1"/>
@@ -6667,7 +6677,7 @@
       <c r="I349" s="11"/>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A350" s="24" t="s">
+      <c r="A350" s="25" t="s">
         <v>338</v>
       </c>
       <c r="B350" s="1"/>
@@ -6680,7 +6690,7 @@
       <c r="I350" s="12"/>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A351" s="24" t="s">
+      <c r="A351" s="25" t="s">
         <v>339</v>
       </c>
       <c r="B351" s="1"/>
@@ -6693,7 +6703,7 @@
       <c r="I351" s="12"/>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A352" s="24" t="s">
+      <c r="A352" s="25" t="s">
         <v>340</v>
       </c>
       <c r="B352" s="1"/>
@@ -6706,7 +6716,7 @@
       <c r="I352" s="12"/>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A353" s="24" t="s">
+      <c r="A353" s="25" t="s">
         <v>341</v>
       </c>
       <c r="B353" s="1"/>
@@ -6719,7 +6729,7 @@
       <c r="I353" s="12"/>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A354" s="24" t="s">
+      <c r="A354" s="25" t="s">
         <v>342</v>
       </c>
       <c r="B354" s="1"/>
@@ -6732,7 +6742,7 @@
       <c r="I354" s="12"/>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A355" s="24" t="s">
+      <c r="A355" s="25" t="s">
         <v>343</v>
       </c>
       <c r="B355" s="1"/>
@@ -6745,7 +6755,7 @@
       <c r="I355" s="12"/>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A356" s="24" t="s">
+      <c r="A356" s="25" t="s">
         <v>344</v>
       </c>
       <c r="B356" s="1"/>
@@ -6758,7 +6768,7 @@
       <c r="I356" s="12"/>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A357" s="24" t="s">
+      <c r="A357" s="25" t="s">
         <v>345</v>
       </c>
       <c r="B357" s="1"/>
@@ -6771,7 +6781,7 @@
       <c r="I357" s="12"/>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A358" s="24" t="s">
+      <c r="A358" s="25" t="s">
         <v>346</v>
       </c>
       <c r="B358" s="1"/>
@@ -6784,7 +6794,7 @@
       <c r="I358" s="12"/>
     </row>
     <row r="359" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A359" s="24" t="s">
+      <c r="A359" s="25" t="s">
         <v>347</v>
       </c>
       <c r="B359" s="1"/>
@@ -6797,7 +6807,7 @@
       <c r="I359" s="12"/>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A360" s="24" t="s">
+      <c r="A360" s="25" t="s">
         <v>348</v>
       </c>
       <c r="B360" s="2"/>
@@ -6810,7 +6820,7 @@
       <c r="I360" s="10"/>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A361" s="24" t="s">
+      <c r="A361" s="25" t="s">
         <v>349</v>
       </c>
       <c r="B361" s="1"/>
@@ -6823,7 +6833,7 @@
       <c r="I361" s="12"/>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A362" s="24" t="s">
+      <c r="A362" s="25" t="s">
         <v>350</v>
       </c>
       <c r="B362" s="1"/>
@@ -6836,7 +6846,7 @@
       <c r="I362" s="11"/>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A363" s="24" t="s">
+      <c r="A363" s="25" t="s">
         <v>351</v>
       </c>
       <c r="B363" s="1"/>
@@ -6849,7 +6859,7 @@
       <c r="I363" s="12"/>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A364" s="24" t="s">
+      <c r="A364" s="25" t="s">
         <v>352</v>
       </c>
       <c r="B364" s="1"/>
@@ -6862,7 +6872,7 @@
       <c r="I364" s="12"/>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A365" s="24" t="s">
+      <c r="A365" s="25" t="s">
         <v>353</v>
       </c>
       <c r="B365" s="1"/>
@@ -6875,7 +6885,7 @@
       <c r="I365" s="11"/>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A366" s="24" t="s">
+      <c r="A366" s="25" t="s">
         <v>354</v>
       </c>
       <c r="B366" s="1"/>
@@ -6888,7 +6898,7 @@
       <c r="I366" s="12"/>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A367" s="24" t="s">
+      <c r="A367" s="25" t="s">
         <v>355</v>
       </c>
       <c r="B367" s="1"/>
@@ -6901,7 +6911,7 @@
       <c r="I367" s="12"/>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A368" s="24" t="s">
+      <c r="A368" s="25" t="s">
         <v>356</v>
       </c>
       <c r="B368" s="1"/>
@@ -6914,7 +6924,7 @@
       <c r="I368" s="12"/>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A369" s="24" t="s">
+      <c r="A369" s="25" t="s">
         <v>357</v>
       </c>
       <c r="B369" s="1"/>
@@ -6927,7 +6937,7 @@
       <c r="I369" s="12"/>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A370" s="24" t="s">
+      <c r="A370" s="25" t="s">
         <v>358</v>
       </c>
       <c r="B370" s="1"/>
@@ -6940,7 +6950,7 @@
       <c r="I370" s="12"/>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A371" s="24" t="s">
+      <c r="A371" s="25" t="s">
         <v>359</v>
       </c>
       <c r="B371" s="1"/>
@@ -6953,7 +6963,7 @@
       <c r="I371" s="12"/>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A372" s="24" t="s">
+      <c r="A372" s="25" t="s">
         <v>360</v>
       </c>
       <c r="B372" s="1"/>
@@ -6966,7 +6976,7 @@
       <c r="I372" s="12"/>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A373" s="24" t="s">
+      <c r="A373" s="25" t="s">
         <v>361</v>
       </c>
       <c r="B373" s="1"/>
@@ -6979,7 +6989,7 @@
       <c r="I373" s="12"/>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A374" s="24" t="s">
+      <c r="A374" s="25" t="s">
         <v>362</v>
       </c>
       <c r="B374" s="1"/>
@@ -6992,7 +7002,7 @@
       <c r="I374" s="12"/>
     </row>
     <row r="375" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A375" s="24" t="s">
+      <c r="A375" s="25" t="s">
         <v>363</v>
       </c>
       <c r="B375" s="1"/>
@@ -7005,7 +7015,7 @@
       <c r="I375" s="12"/>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A376" s="24" t="s">
+      <c r="A376" s="25" t="s">
         <v>364</v>
       </c>
       <c r="B376" s="2"/>
@@ -7018,7 +7028,7 @@
       <c r="I376" s="10"/>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A377" s="24" t="s">
+      <c r="A377" s="25" t="s">
         <v>365</v>
       </c>
       <c r="B377" s="1"/>
@@ -7031,7 +7041,7 @@
       <c r="I377" s="12"/>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A378" s="24" t="s">
+      <c r="A378" s="25" t="s">
         <v>366</v>
       </c>
       <c r="B378" s="1"/>
@@ -7044,7 +7054,7 @@
       <c r="I378" s="11"/>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A379" s="24" t="s">
+      <c r="A379" s="25" t="s">
         <v>367</v>
       </c>
       <c r="B379" s="1"/>
@@ -7057,7 +7067,7 @@
       <c r="I379" s="12"/>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A380" s="24" t="s">
+      <c r="A380" s="25" t="s">
         <v>368</v>
       </c>
       <c r="B380" s="1"/>
@@ -7070,7 +7080,7 @@
       <c r="I380" s="12"/>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A381" s="24" t="s">
+      <c r="A381" s="25" t="s">
         <v>369</v>
       </c>
       <c r="B381" s="1"/>
@@ -7083,7 +7093,7 @@
       <c r="I381" s="11"/>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A382" s="24" t="s">
+      <c r="A382" s="25" t="s">
         <v>370</v>
       </c>
       <c r="B382" s="1"/>
@@ -7096,7 +7106,7 @@
       <c r="I382" s="12"/>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A383" s="24" t="s">
+      <c r="A383" s="25" t="s">
         <v>371</v>
       </c>
       <c r="B383" s="1"/>
@@ -7109,7 +7119,7 @@
       <c r="I383" s="12"/>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A384" s="24" t="s">
+      <c r="A384" s="25" t="s">
         <v>372</v>
       </c>
       <c r="B384" s="1"/>
@@ -7122,7 +7132,7 @@
       <c r="I384" s="12"/>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A385" s="24" t="s">
+      <c r="A385" s="25" t="s">
         <v>373</v>
       </c>
       <c r="B385" s="1"/>
@@ -7135,7 +7145,7 @@
       <c r="I385" s="12"/>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A386" s="24" t="s">
+      <c r="A386" s="25" t="s">
         <v>374</v>
       </c>
       <c r="B386" s="1"/>
@@ -7148,7 +7158,7 @@
       <c r="I386" s="12"/>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A387" s="24" t="s">
+      <c r="A387" s="25" t="s">
         <v>375</v>
       </c>
       <c r="B387" s="1"/>
@@ -7161,7 +7171,7 @@
       <c r="I387" s="12"/>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A388" s="24" t="s">
+      <c r="A388" s="25" t="s">
         <v>376</v>
       </c>
       <c r="B388" s="1"/>
@@ -7174,7 +7184,7 @@
       <c r="I388" s="12"/>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A389" s="24" t="s">
+      <c r="A389" s="25" t="s">
         <v>377</v>
       </c>
       <c r="B389" s="1"/>
@@ -7187,7 +7197,7 @@
       <c r="I389" s="12"/>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A390" s="24" t="s">
+      <c r="A390" s="25" t="s">
         <v>378</v>
       </c>
       <c r="B390" s="1"/>
@@ -7200,7 +7210,7 @@
       <c r="I390" s="12"/>
     </row>
     <row r="391" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A391" s="24" t="s">
+      <c r="A391" s="25" t="s">
         <v>379</v>
       </c>
       <c r="B391" s="1"/>
@@ -7213,7 +7223,7 @@
       <c r="I391" s="12"/>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A392" s="24" t="s">
+      <c r="A392" s="25" t="s">
         <v>380</v>
       </c>
       <c r="B392" s="2"/>
@@ -7226,7 +7236,7 @@
       <c r="I392" s="10"/>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A393" s="24" t="s">
+      <c r="A393" s="25" t="s">
         <v>381</v>
       </c>
       <c r="B393" s="1"/>
@@ -7239,7 +7249,7 @@
       <c r="I393" s="12"/>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A394" s="24" t="s">
+      <c r="A394" s="25" t="s">
         <v>382</v>
       </c>
       <c r="B394" s="1"/>
@@ -7252,7 +7262,7 @@
       <c r="I394" s="11"/>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A395" s="24" t="s">
+      <c r="A395" s="25" t="s">
         <v>383</v>
       </c>
       <c r="B395" s="1"/>
@@ -7265,7 +7275,7 @@
       <c r="I395" s="12"/>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A396" s="24" t="s">
+      <c r="A396" s="25" t="s">
         <v>384</v>
       </c>
       <c r="B396" s="1"/>
@@ -7278,7 +7288,7 @@
       <c r="I396" s="12"/>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A397" s="24" t="s">
+      <c r="A397" s="25" t="s">
         <v>385</v>
       </c>
       <c r="B397" s="1"/>
@@ -7291,7 +7301,7 @@
       <c r="I397" s="11"/>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A398" s="24" t="s">
+      <c r="A398" s="25" t="s">
         <v>386</v>
       </c>
       <c r="B398" s="1"/>
@@ -7304,7 +7314,7 @@
       <c r="I398" s="12"/>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A399" s="24" t="s">
+      <c r="A399" s="25" t="s">
         <v>387</v>
       </c>
       <c r="B399" s="1"/>
@@ -7317,7 +7327,7 @@
       <c r="I399" s="12"/>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A400" s="24" t="s">
+      <c r="A400" s="25" t="s">
         <v>388</v>
       </c>
       <c r="B400" s="1"/>
@@ -7330,7 +7340,7 @@
       <c r="I400" s="12"/>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A401" s="24" t="s">
+      <c r="A401" s="25" t="s">
         <v>389</v>
       </c>
       <c r="B401" s="1"/>
@@ -7343,7 +7353,7 @@
       <c r="I401" s="12"/>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A402" s="24" t="s">
+      <c r="A402" s="25" t="s">
         <v>390</v>
       </c>
       <c r="B402" s="1"/>
@@ -7356,7 +7366,7 @@
       <c r="I402" s="12"/>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A403" s="24" t="s">
+      <c r="A403" s="25" t="s">
         <v>391</v>
       </c>
       <c r="B403" s="1"/>
@@ -7369,7 +7379,7 @@
       <c r="I403" s="12"/>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A404" s="24" t="s">
+      <c r="A404" s="25" t="s">
         <v>392</v>
       </c>
       <c r="B404" s="1"/>
@@ -7382,7 +7392,7 @@
       <c r="I404" s="12"/>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A405" s="24" t="s">
+      <c r="A405" s="25" t="s">
         <v>393</v>
       </c>
       <c r="B405" s="1"/>
@@ -7395,7 +7405,7 @@
       <c r="I405" s="12"/>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A406" s="24" t="s">
+      <c r="A406" s="25" t="s">
         <v>394</v>
       </c>
       <c r="B406" s="1"/>
@@ -7408,7 +7418,7 @@
       <c r="I406" s="12"/>
     </row>
     <row r="407" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A407" s="24" t="s">
+      <c r="A407" s="25" t="s">
         <v>395</v>
       </c>
       <c r="B407" s="1"/>
@@ -7421,7 +7431,7 @@
       <c r="I407" s="12"/>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A408" s="24" t="s">
+      <c r="A408" s="25" t="s">
         <v>396</v>
       </c>
       <c r="B408" s="2"/>
@@ -7434,7 +7444,7 @@
       <c r="I408" s="10"/>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A409" s="24" t="s">
+      <c r="A409" s="25" t="s">
         <v>397</v>
       </c>
       <c r="B409" s="1"/>
@@ -7447,7 +7457,7 @@
       <c r="I409" s="12"/>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A410" s="24" t="s">
+      <c r="A410" s="25" t="s">
         <v>398</v>
       </c>
       <c r="B410" s="1"/>
@@ -7460,7 +7470,7 @@
       <c r="I410" s="11"/>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A411" s="24" t="s">
+      <c r="A411" s="25" t="s">
         <v>399</v>
       </c>
       <c r="B411" s="1"/>
@@ -7473,7 +7483,7 @@
       <c r="I411" s="12"/>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A412" s="24" t="s">
+      <c r="A412" s="25" t="s">
         <v>400</v>
       </c>
       <c r="B412" s="1"/>
@@ -7486,7 +7496,7 @@
       <c r="I412" s="12"/>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A413" s="24" t="s">
+      <c r="A413" s="25" t="s">
         <v>401</v>
       </c>
       <c r="B413" s="1"/>
@@ -7499,7 +7509,7 @@
       <c r="I413" s="11"/>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A414" s="24" t="s">
+      <c r="A414" s="25" t="s">
         <v>402</v>
       </c>
       <c r="B414" s="1"/>
@@ -7512,7 +7522,7 @@
       <c r="I414" s="12"/>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A415" s="24" t="s">
+      <c r="A415" s="25" t="s">
         <v>403</v>
       </c>
       <c r="B415" s="1"/>
@@ -7525,7 +7535,7 @@
       <c r="I415" s="12"/>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A416" s="24" t="s">
+      <c r="A416" s="25" t="s">
         <v>404</v>
       </c>
       <c r="B416" s="1"/>
@@ -7538,7 +7548,7 @@
       <c r="I416" s="12"/>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A417" s="24" t="s">
+      <c r="A417" s="25" t="s">
         <v>405</v>
       </c>
       <c r="B417" s="1"/>
@@ -7551,7 +7561,7 @@
       <c r="I417" s="12"/>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A418" s="24" t="s">
+      <c r="A418" s="25" t="s">
         <v>406</v>
       </c>
       <c r="B418" s="1"/>
@@ -7564,7 +7574,7 @@
       <c r="I418" s="12"/>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A419" s="24" t="s">
+      <c r="A419" s="25" t="s">
         <v>407</v>
       </c>
       <c r="B419" s="1"/>
@@ -7577,7 +7587,7 @@
       <c r="I419" s="12"/>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A420" s="24" t="s">
+      <c r="A420" s="25" t="s">
         <v>408</v>
       </c>
       <c r="B420" s="1"/>
@@ -7590,7 +7600,7 @@
       <c r="I420" s="12"/>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A421" s="24" t="s">
+      <c r="A421" s="25" t="s">
         <v>409</v>
       </c>
       <c r="B421" s="1"/>
@@ -7603,7 +7613,7 @@
       <c r="I421" s="12"/>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A422" s="24" t="s">
+      <c r="A422" s="25" t="s">
         <v>410</v>
       </c>
       <c r="B422" s="1"/>
@@ -7616,7 +7626,7 @@
       <c r="I422" s="12"/>
     </row>
     <row r="423" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A423" s="24" t="s">
+      <c r="A423" s="25" t="s">
         <v>411</v>
       </c>
       <c r="B423" s="1"/>
@@ -7629,7 +7639,7 @@
       <c r="I423" s="12"/>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A424" s="24" t="s">
+      <c r="A424" s="25" t="s">
         <v>412</v>
       </c>
       <c r="B424" s="2"/>
@@ -7642,7 +7652,7 @@
       <c r="I424" s="10"/>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A425" s="24" t="s">
+      <c r="A425" s="25" t="s">
         <v>413</v>
       </c>
       <c r="B425" s="1"/>
@@ -7655,7 +7665,7 @@
       <c r="I425" s="12"/>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A426" s="24" t="s">
+      <c r="A426" s="25" t="s">
         <v>414</v>
       </c>
       <c r="B426" s="1"/>
@@ -7668,7 +7678,7 @@
       <c r="I426" s="11"/>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A427" s="24" t="s">
+      <c r="A427" s="25" t="s">
         <v>415</v>
       </c>
       <c r="B427" s="1"/>
@@ -7681,7 +7691,7 @@
       <c r="I427" s="12"/>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A428" s="24" t="s">
+      <c r="A428" s="25" t="s">
         <v>416</v>
       </c>
       <c r="B428" s="1"/>
@@ -7694,7 +7704,7 @@
       <c r="I428" s="12"/>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A429" s="24" t="s">
+      <c r="A429" s="25" t="s">
         <v>417</v>
       </c>
       <c r="B429" s="1"/>
@@ -7707,7 +7717,7 @@
       <c r="I429" s="11"/>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A430" s="24" t="s">
+      <c r="A430" s="25" t="s">
         <v>418</v>
       </c>
       <c r="B430" s="1"/>
@@ -7720,7 +7730,7 @@
       <c r="I430" s="12"/>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A431" s="24" t="s">
+      <c r="A431" s="25" t="s">
         <v>419</v>
       </c>
       <c r="B431" s="1"/>
@@ -7733,7 +7743,7 @@
       <c r="I431" s="12"/>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A432" s="24" t="s">
+      <c r="A432" s="25" t="s">
         <v>420</v>
       </c>
       <c r="B432" s="1"/>
@@ -7746,7 +7756,7 @@
       <c r="I432" s="12"/>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A433" s="24" t="s">
+      <c r="A433" s="25" t="s">
         <v>421</v>
       </c>
       <c r="B433" s="1"/>
@@ -7759,7 +7769,7 @@
       <c r="I433" s="12"/>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A434" s="24" t="s">
+      <c r="A434" s="25" t="s">
         <v>422</v>
       </c>
       <c r="B434" s="1"/>
@@ -7772,7 +7782,7 @@
       <c r="I434" s="12"/>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A435" s="24" t="s">
+      <c r="A435" s="25" t="s">
         <v>423</v>
       </c>
       <c r="B435" s="1"/>
@@ -7785,7 +7795,7 @@
       <c r="I435" s="12"/>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A436" s="24" t="s">
+      <c r="A436" s="25" t="s">
         <v>424</v>
       </c>
       <c r="B436" s="1"/>
@@ -7798,7 +7808,7 @@
       <c r="I436" s="12"/>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A437" s="24" t="s">
+      <c r="A437" s="25" t="s">
         <v>425</v>
       </c>
       <c r="B437" s="1"/>
@@ -7811,7 +7821,7 @@
       <c r="I437" s="12"/>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A438" s="24" t="s">
+      <c r="A438" s="25" t="s">
         <v>426</v>
       </c>
       <c r="B438" s="1"/>
@@ -7824,7 +7834,7 @@
       <c r="I438" s="12"/>
     </row>
     <row r="439" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="24" t="s">
+      <c r="A439" s="25" t="s">
         <v>427</v>
       </c>
       <c r="B439" s="1"/>
@@ -7837,7 +7847,7 @@
       <c r="I439" s="12"/>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A440" s="24" t="s">
+      <c r="A440" s="25" t="s">
         <v>428</v>
       </c>
       <c r="B440" s="2"/>
@@ -7850,7 +7860,7 @@
       <c r="I440" s="10"/>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A441" s="24" t="s">
+      <c r="A441" s="25" t="s">
         <v>429</v>
       </c>
       <c r="B441" s="1"/>
@@ -7863,7 +7873,7 @@
       <c r="I441" s="12"/>
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A442" s="24" t="s">
+      <c r="A442" s="25" t="s">
         <v>430</v>
       </c>
       <c r="B442" s="1"/>
@@ -7876,7 +7886,7 @@
       <c r="I442" s="11"/>
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A443" s="24" t="s">
+      <c r="A443" s="25" t="s">
         <v>431</v>
       </c>
       <c r="B443" s="1"/>
@@ -7889,7 +7899,7 @@
       <c r="I443" s="12"/>
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A444" s="24" t="s">
+      <c r="A444" s="25" t="s">
         <v>429</v>
       </c>
       <c r="B444" s="1"/>
@@ -7902,7 +7912,7 @@
       <c r="I444" s="12"/>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A445" s="24" t="s">
+      <c r="A445" s="25" t="s">
         <v>431</v>
       </c>
       <c r="B445" s="1"/>
@@ -7915,7 +7925,7 @@
       <c r="I445" s="11"/>
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A446" s="24" t="s">
+      <c r="A446" s="25" t="s">
         <v>432</v>
       </c>
       <c r="B446" s="1"/>
@@ -7928,7 +7938,7 @@
       <c r="I446" s="12"/>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A447" s="24" t="s">
+      <c r="A447" s="25" t="s">
         <v>433</v>
       </c>
       <c r="B447" s="1"/>
@@ -7941,7 +7951,7 @@
       <c r="I447" s="12"/>
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A448" s="24" t="s">
+      <c r="A448" s="25" t="s">
         <v>434</v>
       </c>
       <c r="B448" s="1"/>
@@ -7954,7 +7964,7 @@
       <c r="I448" s="12"/>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A449" s="24" t="s">
+      <c r="A449" s="25" t="s">
         <v>435</v>
       </c>
       <c r="B449" s="1"/>
@@ -7967,7 +7977,7 @@
       <c r="I449" s="12"/>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A450" s="24" t="s">
+      <c r="A450" s="25" t="s">
         <v>436</v>
       </c>
       <c r="B450" s="1"/>
@@ -7980,7 +7990,7 @@
       <c r="I450" s="12"/>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A451" s="24" t="s">
+      <c r="A451" s="25" t="s">
         <v>437</v>
       </c>
       <c r="B451" s="1"/>
@@ -7993,7 +8003,7 @@
       <c r="I451" s="12"/>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A452" s="24" t="s">
+      <c r="A452" s="25" t="s">
         <v>436</v>
       </c>
       <c r="B452" s="1"/>
@@ -8006,7 +8016,7 @@
       <c r="I452" s="12"/>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A453" s="24" t="s">
+      <c r="A453" s="25" t="s">
         <v>437</v>
       </c>
       <c r="B453" s="1"/>
@@ -8019,7 +8029,7 @@
       <c r="I453" s="12"/>
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A454" s="24" t="s">
+      <c r="A454" s="25" t="s">
         <v>438</v>
       </c>
       <c r="B454" s="1"/>
@@ -8032,7 +8042,7 @@
       <c r="I454" s="12"/>
     </row>
     <row r="455" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A455" s="24" t="s">
+      <c r="A455" s="25" t="s">
         <v>439</v>
       </c>
       <c r="B455" s="1"/>
@@ -8045,7 +8055,7 @@
       <c r="I455" s="12"/>
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A456" s="24" t="s">
+      <c r="A456" s="25" t="s">
         <v>440</v>
       </c>
       <c r="B456" s="2"/>
@@ -8058,7 +8068,7 @@
       <c r="I456" s="10"/>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A457" s="24" t="s">
+      <c r="A457" s="25" t="s">
         <v>438</v>
       </c>
       <c r="B457" s="1"/>
@@ -8071,7 +8081,7 @@
       <c r="I457" s="12"/>
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A458" s="24" t="s">
+      <c r="A458" s="25" t="s">
         <v>439</v>
       </c>
       <c r="B458" s="1"/>
@@ -8084,7 +8094,7 @@
       <c r="I458" s="11"/>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A459" s="24" t="s">
+      <c r="A459" s="25" t="s">
         <v>441</v>
       </c>
       <c r="B459" s="1"/>
@@ -8097,7 +8107,7 @@
       <c r="I459" s="12"/>
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A460" s="24" t="s">
+      <c r="A460" s="25" t="s">
         <v>442</v>
       </c>
       <c r="B460" s="1"/>
@@ -8110,7 +8120,7 @@
       <c r="I460" s="12"/>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A461" s="24" t="s">
+      <c r="A461" s="25" t="s">
         <v>443</v>
       </c>
       <c r="B461" s="1"/>
@@ -8123,7 +8133,7 @@
       <c r="I461" s="11"/>
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A462" s="24" t="s">
+      <c r="A462" s="25" t="s">
         <v>444</v>
       </c>
       <c r="B462" s="1"/>
@@ -8136,7 +8146,7 @@
       <c r="I462" s="12"/>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A463" s="24" t="s">
+      <c r="A463" s="25" t="s">
         <v>445</v>
       </c>
       <c r="B463" s="1"/>
@@ -8149,7 +8159,7 @@
       <c r="I463" s="12"/>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A464" s="24" t="s">
+      <c r="A464" s="25" t="s">
         <v>446</v>
       </c>
       <c r="B464" s="1"/>
@@ -8162,7 +8172,7 @@
       <c r="I464" s="12"/>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A465" s="24" t="s">
+      <c r="A465" s="25" t="s">
         <v>447</v>
       </c>
       <c r="B465" s="1"/>
@@ -8175,7 +8185,7 @@
       <c r="I465" s="12"/>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A466" s="24" t="s">
+      <c r="A466" s="25" t="s">
         <v>448</v>
       </c>
       <c r="B466" s="1"/>
@@ -8188,7 +8198,7 @@
       <c r="I466" s="12"/>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A467" s="24" t="s">
+      <c r="A467" s="25" t="s">
         <v>449</v>
       </c>
       <c r="B467" s="1"/>
@@ -8201,7 +8211,7 @@
       <c r="I467" s="12"/>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A468" s="24" t="s">
+      <c r="A468" s="25" t="s">
         <v>450</v>
       </c>
       <c r="B468" s="1"/>
@@ -8214,7 +8224,7 @@
       <c r="I468" s="12"/>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A469" s="24" t="s">
+      <c r="A469" s="25" t="s">
         <v>451</v>
       </c>
       <c r="B469" s="1"/>
@@ -8227,7 +8237,7 @@
       <c r="I469" s="12"/>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A470" s="24" t="s">
+      <c r="A470" s="25" t="s">
         <v>452</v>
       </c>
       <c r="B470" s="1"/>
@@ -8240,7 +8250,7 @@
       <c r="I470" s="12"/>
     </row>
     <row r="471" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A471" s="24" t="s">
+      <c r="A471" s="25" t="s">
         <v>453</v>
       </c>
       <c r="B471" s="1"/>
@@ -8253,7 +8263,7 @@
       <c r="I471" s="12"/>
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A472" s="24" t="s">
+      <c r="A472" s="25" t="s">
         <v>454</v>
       </c>
       <c r="B472" s="2"/>
@@ -8266,7 +8276,7 @@
       <c r="I472" s="10"/>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A473" s="24" t="s">
+      <c r="A473" s="25" t="s">
         <v>455</v>
       </c>
       <c r="B473" s="1"/>
@@ -8279,7 +8289,7 @@
       <c r="I473" s="12"/>
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A474" s="24" t="s">
+      <c r="A474" s="25" t="s">
         <v>456</v>
       </c>
       <c r="B474" s="1"/>
@@ -8292,7 +8302,7 @@
       <c r="I474" s="11"/>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A475" s="24" t="s">
+      <c r="A475" s="25" t="s">
         <v>457</v>
       </c>
       <c r="B475" s="1"/>
@@ -8305,7 +8315,7 @@
       <c r="I475" s="12"/>
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A476" s="24" t="s">
+      <c r="A476" s="25" t="s">
         <v>458</v>
       </c>
       <c r="B476" s="1"/>
@@ -8318,7 +8328,7 @@
       <c r="I476" s="12"/>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A477" s="24" t="s">
+      <c r="A477" s="25" t="s">
         <v>459</v>
       </c>
       <c r="B477" s="1"/>
@@ -8331,7 +8341,7 @@
       <c r="I477" s="11"/>
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A478" s="24" t="s">
+      <c r="A478" s="25" t="s">
         <v>460</v>
       </c>
       <c r="B478" s="1"/>
@@ -8344,7 +8354,7 @@
       <c r="I478" s="12"/>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A479" s="24" t="s">
+      <c r="A479" s="25" t="s">
         <v>461</v>
       </c>
       <c r="B479" s="1"/>
@@ -8357,7 +8367,7 @@
       <c r="I479" s="12"/>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A480" s="24" t="s">
+      <c r="A480" s="25" t="s">
         <v>462</v>
       </c>
       <c r="B480" s="1"/>
@@ -8370,7 +8380,7 @@
       <c r="I480" s="12"/>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A481" s="24" t="s">
+      <c r="A481" s="25" t="s">
         <v>463</v>
       </c>
       <c r="B481" s="1"/>
@@ -8383,7 +8393,7 @@
       <c r="I481" s="12"/>
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A482" s="24" t="s">
+      <c r="A482" s="25" t="s">
         <v>464</v>
       </c>
       <c r="B482" s="1"/>
@@ -8396,7 +8406,7 @@
       <c r="I482" s="12"/>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A483" s="24" t="s">
+      <c r="A483" s="25" t="s">
         <v>465</v>
       </c>
       <c r="B483" s="1"/>
@@ -8409,7 +8419,7 @@
       <c r="I483" s="12"/>
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A484" s="24" t="s">
+      <c r="A484" s="25" t="s">
         <v>466</v>
       </c>
       <c r="B484" s="1"/>
@@ -8422,7 +8432,7 @@
       <c r="I484" s="12"/>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A485" s="24" t="s">
+      <c r="A485" s="25" t="s">
         <v>467</v>
       </c>
       <c r="B485" s="1"/>
@@ -8435,7 +8445,7 @@
       <c r="I485" s="12"/>
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A486" s="24" t="s">
+      <c r="A486" s="25" t="s">
         <v>468</v>
       </c>
       <c r="B486" s="1"/>
@@ -8448,7 +8458,7 @@
       <c r="I486" s="12"/>
     </row>
     <row r="487" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="24" t="s">
+      <c r="A487" s="25" t="s">
         <v>469</v>
       </c>
       <c r="B487" s="1"/>
@@ -8461,7 +8471,7 @@
       <c r="I487" s="12"/>
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A488" s="24" t="s">
+      <c r="A488" s="25" t="s">
         <v>470</v>
       </c>
       <c r="B488" s="2"/>
@@ -8474,7 +8484,7 @@
       <c r="I488" s="10"/>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A489" s="24" t="s">
+      <c r="A489" s="25" t="s">
         <v>471</v>
       </c>
       <c r="B489" s="1"/>
@@ -8487,7 +8497,7 @@
       <c r="I489" s="12"/>
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A490" s="24" t="s">
+      <c r="A490" s="25" t="s">
         <v>472</v>
       </c>
       <c r="B490" s="1"/>
@@ -8500,7 +8510,7 @@
       <c r="I490" s="11"/>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A491" s="24" t="s">
+      <c r="A491" s="25" t="s">
         <v>473</v>
       </c>
       <c r="B491" s="1"/>
@@ -8513,7 +8523,7 @@
       <c r="I491" s="12"/>
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A492" s="24" t="s">
+      <c r="A492" s="25" t="s">
         <v>474</v>
       </c>
       <c r="B492" s="1"/>
@@ -8526,7 +8536,7 @@
       <c r="I492" s="12"/>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A493" s="24" t="s">
+      <c r="A493" s="25" t="s">
         <v>475</v>
       </c>
       <c r="B493" s="1"/>
@@ -8539,7 +8549,7 @@
       <c r="I493" s="11"/>
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A494" s="24" t="s">
+      <c r="A494" s="25" t="s">
         <v>476</v>
       </c>
       <c r="B494" s="1"/>
@@ -8552,7 +8562,7 @@
       <c r="I494" s="12"/>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A495" s="24" t="s">
+      <c r="A495" s="25" t="s">
         <v>477</v>
       </c>
       <c r="B495" s="1"/>
@@ -8565,7 +8575,7 @@
       <c r="I495" s="12"/>
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A496" s="24" t="s">
+      <c r="A496" s="25" t="s">
         <v>478</v>
       </c>
       <c r="B496" s="1"/>
@@ -8578,7 +8588,7 @@
       <c r="I496" s="12"/>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A497" s="24" t="s">
+      <c r="A497" s="25" t="s">
         <v>479</v>
       </c>
       <c r="B497" s="1"/>
@@ -8591,7 +8601,7 @@
       <c r="I497" s="12"/>
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A498" s="24" t="s">
+      <c r="A498" s="25" t="s">
         <v>480</v>
       </c>
       <c r="B498" s="1"/>
@@ -8604,7 +8614,7 @@
       <c r="I498" s="12"/>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A499" s="24" t="s">
+      <c r="A499" s="25" t="s">
         <v>481</v>
       </c>
       <c r="B499" s="1"/>
@@ -8617,7 +8627,7 @@
       <c r="I499" s="12"/>
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A500" s="24" t="s">
+      <c r="A500" s="25" t="s">
         <v>482</v>
       </c>
       <c r="B500" s="1"/>
@@ -8630,7 +8640,7 @@
       <c r="I500" s="12"/>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A501" s="24" t="s">
+      <c r="A501" s="25" t="s">
         <v>483</v>
       </c>
       <c r="B501" s="1"/>
@@ -8643,7 +8653,7 @@
       <c r="I501" s="12"/>
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A502" s="24" t="s">
+      <c r="A502" s="25" t="s">
         <v>484</v>
       </c>
       <c r="B502" s="1"/>
@@ -8656,7 +8666,7 @@
       <c r="I502" s="12"/>
     </row>
     <row r="503" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A503" s="24" t="s">
+      <c r="A503" s="25" t="s">
         <v>485</v>
       </c>
       <c r="B503" s="1"/>
@@ -8669,7 +8679,7 @@
       <c r="I503" s="12"/>
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A504" s="24" t="s">
+      <c r="A504" s="25" t="s">
         <v>486</v>
       </c>
       <c r="B504" s="2"/>
@@ -8682,7 +8692,7 @@
       <c r="I504" s="10"/>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A505" s="24" t="s">
+      <c r="A505" s="25" t="s">
         <v>487</v>
       </c>
       <c r="B505" s="1"/>
@@ -8695,7 +8705,7 @@
       <c r="I505" s="12"/>
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A506" s="24" t="s">
+      <c r="A506" s="25" t="s">
         <v>488</v>
       </c>
       <c r="B506" s="1"/>
@@ -8708,7 +8718,7 @@
       <c r="I506" s="11"/>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A507" s="24" t="s">
+      <c r="A507" s="25" t="s">
         <v>489</v>
       </c>
       <c r="B507" s="1"/>
@@ -8721,7 +8731,7 @@
       <c r="I507" s="12"/>
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A508" s="24" t="s">
+      <c r="A508" s="25" t="s">
         <v>490</v>
       </c>
       <c r="B508" s="1"/>
@@ -8734,7 +8744,7 @@
       <c r="I508" s="12"/>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A509" s="24" t="s">
+      <c r="A509" s="25" t="s">
         <v>491</v>
       </c>
       <c r="B509" s="1"/>
